--- a/excel work rasna(1) (1).xlsx
+++ b/excel work rasna(1) (1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="19095" windowHeight="8445" firstSheet="17" activeTab="21"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="19095" windowHeight="8445" firstSheet="20" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="INTRODUCTION" sheetId="1" r:id="rId1"/>
@@ -29,13 +29,17 @@
     <sheet name="PEOJECTS" sheetId="20" r:id="rId20"/>
     <sheet name="STUDENT MARKSHEET" sheetId="21" r:id="rId21"/>
     <sheet name="PAYROLL-salary management" sheetId="22" r:id="rId22"/>
+    <sheet name="BARCODE" sheetId="23" r:id="rId23"/>
+    <sheet name="BILL ENTRY" sheetId="24" r:id="rId24"/>
+    <sheet name="FORMS" sheetId="25" r:id="rId25"/>
+    <sheet name="PROFIT LOSS" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="384">
   <si>
     <t xml:space="preserve">A spreadsheet is a software program you use to easily perform a mathematical calculations on statistical data and totaling long columns of numbers or determining percentages and averages
 </t>
@@ -1052,12 +1056,6 @@
     <t>jun rai</t>
   </si>
   <si>
-    <t>total attendance&gt;=70,+10000,if not then same</t>
-  </si>
-  <si>
-    <t>salary revised else didn't revise</t>
-  </si>
-  <si>
     <t>A2</t>
   </si>
   <si>
@@ -1095,20 +1093,184 @@
   </si>
   <si>
     <t>40 DAYS</t>
+  </si>
+  <si>
+    <t>22days</t>
+  </si>
+  <si>
+    <t>30days</t>
+  </si>
+  <si>
+    <t>25 days</t>
+  </si>
+  <si>
+    <t>18 days</t>
+  </si>
+  <si>
+    <t>21days</t>
+  </si>
+  <si>
+    <t>16 DAYS</t>
+  </si>
+  <si>
+    <t>17 DAYS</t>
+  </si>
+  <si>
+    <t>18 DAYS</t>
+  </si>
+  <si>
+    <t>19 DAYS</t>
+  </si>
+  <si>
+    <t>20 DAYS</t>
+  </si>
+  <si>
+    <t>21 DAYS</t>
+  </si>
+  <si>
+    <t>product id</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>font name</t>
+  </si>
+  <si>
+    <t>GJOO12889</t>
+  </si>
+  <si>
+    <t>GJOO12890</t>
+  </si>
+  <si>
+    <t>GJOO12891</t>
+  </si>
+  <si>
+    <t>GJOO12892</t>
+  </si>
+  <si>
+    <t>GJOO12893</t>
+  </si>
+  <si>
+    <t>GJOO12894</t>
+  </si>
+  <si>
+    <t>GJOO12895</t>
+  </si>
+  <si>
+    <t>GJOO12896</t>
+  </si>
+  <si>
+    <t>GJOO12897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALARY REVISION IF ATTENDANCE &gt;=70+10000 </t>
+  </si>
+  <si>
+    <t>TO THE SALARY IF NOT THEN SALARY REMAINS</t>
+  </si>
+  <si>
+    <t>THE SAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF SALARY REVISED THEN SALARY REVISED OR </t>
+  </si>
+  <si>
+    <t>ELSE DIDN'T REVISE HAS TO SHOW</t>
+  </si>
+  <si>
+    <t>TIMES</t>
+  </si>
+  <si>
+    <t>ROMAN</t>
+  </si>
+  <si>
+    <t>ITALIC</t>
+  </si>
+  <si>
+    <t>CALIBRI</t>
+  </si>
+  <si>
+    <t>CAMBRIDGE</t>
+  </si>
+  <si>
+    <t>RESTAURANTS BILL INVOICE</t>
+  </si>
+  <si>
+    <t>PROFIT FOR THE MONTH OF JANAURY</t>
+  </si>
+  <si>
+    <t>bill id</t>
+  </si>
+  <si>
+    <t>cuisine</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>gj101</t>
+  </si>
+  <si>
+    <t>gj102</t>
+  </si>
+  <si>
+    <t>gj103</t>
+  </si>
+  <si>
+    <t>gj104</t>
+  </si>
+  <si>
+    <t>gj105</t>
+  </si>
+  <si>
+    <t>gj106</t>
+  </si>
+  <si>
+    <t>gj107</t>
+  </si>
+  <si>
+    <t>indian</t>
+  </si>
+  <si>
+    <t>chinese</t>
+  </si>
+  <si>
+    <t>nepali</t>
+  </si>
+  <si>
+    <t>korean</t>
+  </si>
+  <si>
+    <t>mexican</t>
+  </si>
+  <si>
+    <t>naga</t>
+  </si>
+  <si>
+    <t>english breakfast</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>GST 13%</t>
+  </si>
+  <si>
+    <t>GRAND TOTAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="166" formatCode="[$$-1009]#,##0.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1172,8 +1334,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1270,6 +1446,60 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1290,7 +1520,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1337,6 +1567,10 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1379,23 +1613,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1408,6 +1633,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1493,12 +1727,33 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Currency" xfId="4" builtinId="4"/>
@@ -1599,24 +1854,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="76798208"/>
-        <c:axId val="76951552"/>
+        <c:axId val="61057664"/>
+        <c:axId val="61649280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="76798208"/>
+        <c:axId val="61057664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76951552"/>
+        <c:crossAx val="61649280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76951552"/>
+        <c:axId val="61649280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1624,7 +1879,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76798208"/>
+        <c:crossAx val="61057664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1633,7 +1888,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3101,130 +3356,130 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="H10" s="38" t="s">
+      <c r="D10" s="44"/>
+      <c r="H10" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
     </row>
     <row r="12" spans="1:13">
       <c r="C12" s="2"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
     </row>
     <row r="20" spans="3:14">
       <c r="C20" s="4" t="s">
@@ -3232,72 +3487,72 @@
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="32" t="s">
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
     </row>
     <row r="21" spans="3:14">
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
     </row>
     <row r="22" spans="3:14">
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
     </row>
     <row r="23" spans="3:14">
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
     </row>
     <row r="25" spans="3:14">
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
     </row>
     <row r="26" spans="3:14">
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
     </row>
     <row r="27" spans="3:14">
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
     </row>
     <row r="28" spans="3:14">
       <c r="H28" s="1"/>
@@ -3310,176 +3565,176 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="32" t="s">
+      <c r="H30" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
     </row>
     <row r="31" spans="3:14">
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
       <c r="N31" s="2"/>
     </row>
     <row r="32" spans="3:14">
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
     </row>
     <row r="33" spans="3:13">
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
     </row>
     <row r="34" spans="3:13">
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
     </row>
     <row r="35" spans="3:13">
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
     </row>
     <row r="36" spans="3:13">
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
     </row>
     <row r="37" spans="3:13">
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
     </row>
     <row r="38" spans="3:13">
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="33"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
     </row>
     <row r="39" spans="3:13">
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="33"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
     </row>
     <row r="40" spans="3:13">
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="33"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
     </row>
     <row r="41" spans="3:13">
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="33"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
     </row>
     <row r="42" spans="3:13">
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="33"/>
-      <c r="L42" s="33"/>
-      <c r="M42" s="33"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
     </row>
     <row r="45" spans="3:13">
-      <c r="C45" s="34" t="s">
+      <c r="C45" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="35" t="s">
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I45" s="36"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="36"/>
-      <c r="L45" s="36"/>
-      <c r="M45" s="36"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="40"/>
     </row>
     <row r="46" spans="3:13">
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="36"/>
-      <c r="L46" s="36"/>
-      <c r="M46" s="36"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="40"/>
     </row>
     <row r="47" spans="3:13">
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="36"/>
-      <c r="L47" s="36"/>
-      <c r="M47" s="36"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="40"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="40"/>
     </row>
     <row r="48" spans="3:13">
-      <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="36"/>
-      <c r="K48" s="36"/>
-      <c r="L48" s="36"/>
-      <c r="M48" s="36"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="40"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="40"/>
     </row>
     <row r="49" spans="8:13">
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="40"/>
+      <c r="L49" s="40"/>
+      <c r="M49" s="40"/>
     </row>
     <row r="50" spans="8:13">
-      <c r="H50" s="36"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="36"/>
-      <c r="K50" s="36"/>
-      <c r="L50" s="36"/>
-      <c r="M50" s="36"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="40"/>
+      <c r="L50" s="40"/>
+      <c r="M50" s="40"/>
     </row>
     <row r="51" spans="8:13">
-      <c r="H51" s="36"/>
-      <c r="I51" s="36"/>
-      <c r="J51" s="36"/>
-      <c r="K51" s="36"/>
-      <c r="L51" s="36"/>
-      <c r="M51" s="36"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3510,14 +3765,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
     </row>
     <row r="3" spans="1:12">
       <c r="B3" s="17" t="s">
@@ -3532,12 +3787,12 @@
         <f>COUNTIF(B6:B9,"APPLES")</f>
         <v>2</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="21" t="s">
@@ -3547,10 +3802,10 @@
         <f>COUNTIF(B8:B10,"BISCUITS")</f>
         <v>2</v>
       </c>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
     </row>
     <row r="6" spans="1:12">
       <c r="B6" s="21" t="s">
@@ -3570,92 +3825,92 @@
       <c r="B8" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
     </row>
     <row r="9" spans="1:12">
       <c r="B9" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="G9" s="72" t="s">
+      <c r="G9" s="76" t="s">
         <v>133</v>
       </c>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="73"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="77"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="73"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
     </row>
     <row r="19" spans="7:7">
       <c r="G19">
@@ -3691,21 +3946,21 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="G3" s="65" t="s">
+      <c r="G3" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
     </row>
     <row r="4" spans="1:16">
       <c r="G4" t="s">
@@ -3717,12 +3972,12 @@
       <c r="I4" t="s">
         <v>141</v>
       </c>
-      <c r="M4" s="75" t="s">
+      <c r="M4" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
     </row>
     <row r="5" spans="1:16">
       <c r="G5" t="s">
@@ -3734,10 +3989,10 @@
       <c r="I5" t="s">
         <v>142</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
     </row>
     <row r="6" spans="1:16">
       <c r="G6" t="s">
@@ -3749,10 +4004,10 @@
       <c r="I6" t="s">
         <v>143</v>
       </c>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="80"/>
     </row>
     <row r="7" spans="1:16">
       <c r="G7" t="s">
@@ -3764,10 +4019,10 @@
       <c r="I7" t="s">
         <v>142</v>
       </c>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="76"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="80"/>
     </row>
     <row r="8" spans="1:16">
       <c r="G8" t="s">
@@ -3781,62 +4036,62 @@
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="E10" s="74" t="s">
+      <c r="E10" s="78" t="s">
         <v>144</v>
       </c>
-      <c r="F10" s="34"/>
+      <c r="F10" s="38"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="69" t="s">
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="73" t="s">
         <v>145</v>
       </c>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
       <c r="K11">
         <f>SUMIF(H4:H8,"&lt;40")</f>
         <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="G12" s="74" t="s">
+      <c r="G12" s="78" t="s">
         <v>146</v>
       </c>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
       <c r="K12">
         <f>SUMIF(I4:I8,"ARTS",H4:H8)</f>
         <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="G14" s="69" t="s">
+      <c r="G14" s="73" t="s">
         <v>147</v>
       </c>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
       <c r="K14">
         <f>COUNTIF(H4:H8,"&gt;35")</f>
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="G15" s="55" t="s">
+      <c r="G15" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
       <c r="K15">
         <f>AVERAGEIF(H4:H8,"&lt;45")</f>
         <v>33.333333333333336</v>
@@ -3872,16 +4127,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="18" t="s">
@@ -3908,15 +4163,15 @@
         <f>VLOOKUP(A5,A9:D12,4,0)</f>
         <v>674539430</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
@@ -3926,13 +4181,13 @@
         <f>VLOOKUP(A6,A9:D12,2,0)</f>
         <v>per@gmail.com</v>
       </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
@@ -3942,28 +4197,28 @@
         <f>VLOOKUP(A7,A9:D12,3,0)</f>
         <v>tadong</v>
       </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
@@ -3978,13 +4233,13 @@
       <c r="D9">
         <v>231132213</v>
       </c>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
@@ -3999,13 +4254,13 @@
       <c r="D10">
         <v>674539430</v>
       </c>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
@@ -4020,13 +4275,13 @@
       <c r="D11">
         <v>5474859060</v>
       </c>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
@@ -4041,13 +4296,13 @@
       <c r="D12">
         <v>6485607</v>
       </c>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4076,112 +4331,112 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="56" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
     </row>
     <row r="6" spans="1:14">
       <c r="B6" t="s">
         <v>169</v>
       </c>
-      <c r="F6" s="78" t="s">
+      <c r="F6" s="82" t="s">
         <v>170</v>
       </c>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="83"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="79"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="83"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="79"/>
-      <c r="M8" s="79"/>
-      <c r="N8" s="79"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="83"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="83"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="79"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="83"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="83"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="79"/>
-      <c r="N12" s="79"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="83"/>
+      <c r="N12" s="83"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="79"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4208,20 +4463,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="84" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
     </row>
     <row r="3" spans="1:17">
       <c r="Q3" t="s">
@@ -4229,16 +4484,16 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
     </row>
     <row r="7" spans="1:17">
       <c r="F7" s="12" t="s">
@@ -4282,95 +4537,95 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="E14" s="78" t="s">
+      <c r="E14" s="82" t="s">
         <v>179</v>
       </c>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="79"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="83"/>
+      <c r="L14" s="83"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="79"/>
-      <c r="L15" s="79"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="83"/>
+      <c r="L15" s="83"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="79"/>
-      <c r="L16" s="79"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="83"/>
+      <c r="L16" s="83"/>
     </row>
     <row r="17" spans="5:20">
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="79"/>
-      <c r="L17" s="79"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="83"/>
     </row>
     <row r="18" spans="5:20">
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="79"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="83"/>
     </row>
     <row r="19" spans="5:20">
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="79"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="83"/>
     </row>
     <row r="20" spans="5:20">
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="83"/>
     </row>
     <row r="21" spans="5:20">
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="79"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="83"/>
+      <c r="L21" s="83"/>
     </row>
     <row r="24" spans="5:20">
-      <c r="P24" s="65" t="s">
+      <c r="P24" s="69" t="s">
         <v>181</v>
       </c>
-      <c r="Q24" s="65"/>
-      <c r="R24" s="65"/>
-      <c r="S24" s="65"/>
-      <c r="T24" s="65"/>
+      <c r="Q24" s="69"/>
+      <c r="R24" s="69"/>
+      <c r="S24" s="69"/>
+      <c r="T24" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4399,45 +4654,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="69" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
     </row>
     <row r="2" spans="1:22">
-      <c r="N2" s="69" t="s">
+      <c r="N2" s="73" t="s">
         <v>184</v>
       </c>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
     </row>
     <row r="3" spans="1:22" ht="15" customHeight="1">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="53" t="s">
         <v>183</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="T4" s="67" t="s">
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="T4" s="71" t="s">
         <v>185</v>
       </c>
       <c r="U4" t="s">
@@ -4448,14 +4703,14 @@
       </c>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="52"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="T5" s="68"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="T5" s="72"/>
       <c r="U5" t="s">
         <v>188</v>
       </c>
@@ -4464,14 +4719,14 @@
       </c>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="52"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="T6" s="68"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="T6" s="72"/>
       <c r="U6" t="s">
         <v>189</v>
       </c>
@@ -4480,23 +4735,23 @@
       </c>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="52"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="52"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="T8" s="69" t="s">
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="T8" s="73" t="s">
         <v>186</v>
       </c>
       <c r="U8" t="s">
@@ -4508,23 +4763,23 @@
       </c>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="52"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="T9" s="69"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="T9" s="73"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="52"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
       <c r="U10" s="16" t="s">
         <v>191</v>
       </c>
@@ -4534,58 +4789,58 @@
       </c>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="52"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="52"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="52"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="52"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="52"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="52"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4615,16 +4870,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
       <c r="N1" t="s">
         <v>204</v>
       </c>
@@ -4635,12 +4890,12 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="56" t="s">
         <v>193</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
       <c r="N3" t="s">
         <v>206</v>
       </c>
@@ -4657,10 +4912,10 @@
       <c r="D5" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="34"/>
+      <c r="G5" s="38"/>
       <c r="N5" t="s">
         <v>208</v>
       </c>
@@ -4672,10 +4927,10 @@
       <c r="D6" t="s">
         <v>200</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="G6" s="41"/>
+      <c r="G6" s="45"/>
       <c r="N6" t="s">
         <v>209</v>
       </c>
@@ -4749,246 +5004,246 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="71" t="s">
         <v>214</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
     </row>
     <row r="4" spans="1:27">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
     </row>
     <row r="5" spans="1:27">
-      <c r="A5" s="68"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
     </row>
     <row r="6" spans="1:27">
-      <c r="A6" s="68"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
     </row>
     <row r="7" spans="1:27">
-      <c r="A7" s="68"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
     </row>
     <row r="8" spans="1:27">
-      <c r="A8" s="68"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
     </row>
     <row r="9" spans="1:27">
-      <c r="A9" s="68"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
     </row>
     <row r="10" spans="1:27">
-      <c r="A10" s="68"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
+      <c r="A10" s="72"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
     </row>
     <row r="11" spans="1:27">
-      <c r="A11" s="68"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
     </row>
     <row r="12" spans="1:27">
-      <c r="A12" s="68"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
     </row>
     <row r="14" spans="1:27">
       <c r="E14" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="F14" s="69" t="s">
+      <c r="F14" s="73" t="s">
         <v>216</v>
       </c>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="69"/>
-      <c r="Q14" s="69"/>
-      <c r="R14" s="69"/>
-      <c r="S14" s="69"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="69"/>
-      <c r="V14" s="69"/>
-      <c r="W14" s="69"/>
-      <c r="X14" s="69"/>
-      <c r="Y14" s="69"/>
-      <c r="Z14" s="69"/>
-      <c r="AA14" s="69"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="73"/>
+      <c r="Q14" s="73"/>
+      <c r="R14" s="73"/>
+      <c r="S14" s="73"/>
+      <c r="T14" s="73"/>
+      <c r="U14" s="73"/>
+      <c r="V14" s="73"/>
+      <c r="W14" s="73"/>
+      <c r="X14" s="73"/>
+      <c r="Y14" s="73"/>
+      <c r="Z14" s="73"/>
+      <c r="AA14" s="73"/>
     </row>
     <row r="15" spans="1:27">
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="69"/>
-      <c r="Q15" s="69"/>
-      <c r="R15" s="69"/>
-      <c r="S15" s="69"/>
-      <c r="T15" s="69"/>
-      <c r="U15" s="69"/>
-      <c r="V15" s="69"/>
-      <c r="W15" s="69"/>
-      <c r="X15" s="69"/>
-      <c r="Y15" s="69"/>
-      <c r="Z15" s="69"/>
-      <c r="AA15" s="69"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="73"/>
+      <c r="Q15" s="73"/>
+      <c r="R15" s="73"/>
+      <c r="S15" s="73"/>
+      <c r="T15" s="73"/>
+      <c r="U15" s="73"/>
+      <c r="V15" s="73"/>
+      <c r="W15" s="73"/>
+      <c r="X15" s="73"/>
+      <c r="Y15" s="73"/>
+      <c r="Z15" s="73"/>
+      <c r="AA15" s="73"/>
     </row>
     <row r="17" spans="5:20">
       <c r="E17" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="F17" s="68" t="s">
+      <c r="F17" s="72" t="s">
         <v>219</v>
       </c>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="71"/>
-      <c r="T17" s="71"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="72"/>
+      <c r="R17" s="75"/>
+      <c r="S17" s="75"/>
+      <c r="T17" s="75"/>
     </row>
     <row r="18" spans="5:20">
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="68"/>
-      <c r="P18" s="68"/>
-      <c r="Q18" s="68"/>
-      <c r="R18" s="71"/>
-      <c r="S18" s="71"/>
-      <c r="T18" s="71"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="72"/>
+      <c r="R18" s="75"/>
+      <c r="S18" s="75"/>
+      <c r="T18" s="75"/>
     </row>
     <row r="20" spans="5:20">
       <c r="E20" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="F20" s="69" t="s">
+      <c r="F20" s="73" t="s">
         <v>220</v>
       </c>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="69"/>
-      <c r="O20" s="69"/>
-      <c r="P20" s="69"/>
-      <c r="Q20" s="69"/>
-      <c r="R20" s="69"/>
-      <c r="S20" s="69"/>
-      <c r="T20" s="69"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="73"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="73"/>
+      <c r="S20" s="73"/>
+      <c r="T20" s="73"/>
     </row>
     <row r="21" spans="5:20">
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="69"/>
-      <c r="O21" s="69"/>
-      <c r="P21" s="69"/>
-      <c r="Q21" s="69"/>
-      <c r="R21" s="69"/>
-      <c r="S21" s="69"/>
-      <c r="T21" s="69"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="73"/>
+      <c r="O21" s="73"/>
+      <c r="P21" s="73"/>
+      <c r="Q21" s="73"/>
+      <c r="R21" s="73"/>
+      <c r="S21" s="73"/>
+      <c r="T21" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5077,134 +5332,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="85" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="81"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="86" t="s">
         <v>230</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="55"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="55"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="55"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="55"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="55"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="55"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="55"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="55"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="55"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="55"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="55"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
     </row>
     <row r="17" spans="7:10">
       <c r="G17" s="12" t="s">
@@ -5273,1760 +5528,1760 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="9" spans="2:20">
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
     </row>
     <row r="10" spans="2:20">
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="41"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45"/>
     </row>
     <row r="11" spans="2:20">
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="45"/>
     </row>
     <row r="12" spans="2:20">
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
     </row>
     <row r="13" spans="2:20">
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
     </row>
     <row r="14" spans="2:20">
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
     </row>
     <row r="15" spans="2:20">
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="41"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
     </row>
     <row r="16" spans="2:20">
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="41"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
     </row>
     <row r="17" spans="2:20">
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="41"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="45"/>
     </row>
     <row r="18" spans="2:20">
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="41"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="45"/>
     </row>
     <row r="19" spans="2:20">
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="41"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="45"/>
     </row>
     <row r="20" spans="2:20">
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="41"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="45"/>
     </row>
     <row r="21" spans="2:20">
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="41"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
     </row>
     <row r="22" spans="2:20">
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="41"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
     </row>
     <row r="23" spans="2:20">
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
     </row>
     <row r="24" spans="2:20">
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="41"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="45"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="45"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="45"/>
     </row>
     <row r="25" spans="2:20">
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="41"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="41"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="45"/>
     </row>
     <row r="26" spans="2:20">
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="41"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
     </row>
     <row r="27" spans="2:20">
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="41"/>
-      <c r="S27" s="41"/>
-      <c r="T27" s="41"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="45"/>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="45"/>
+      <c r="T27" s="45"/>
     </row>
     <row r="28" spans="2:20">
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="41"/>
-      <c r="S28" s="41"/>
-      <c r="T28" s="41"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="45"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="45"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="45"/>
     </row>
     <row r="29" spans="2:20">
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="41"/>
-      <c r="S29" s="41"/>
-      <c r="T29" s="41"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="45"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="45"/>
+      <c r="P29" s="45"/>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="45"/>
+      <c r="T29" s="45"/>
     </row>
     <row r="30" spans="2:20">
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="41"/>
-      <c r="S30" s="41"/>
-      <c r="T30" s="41"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="45"/>
+      <c r="O30" s="45"/>
+      <c r="P30" s="45"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="45"/>
+      <c r="T30" s="45"/>
     </row>
     <row r="31" spans="2:20">
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="41"/>
-      <c r="S31" s="41"/>
-      <c r="T31" s="41"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="45"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="45"/>
     </row>
     <row r="32" spans="2:20">
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="41"/>
-      <c r="T32" s="41"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="45"/>
+      <c r="O32" s="45"/>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="45"/>
     </row>
     <row r="33" spans="2:20">
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="41"/>
-      <c r="S33" s="41"/>
-      <c r="T33" s="41"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="45"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="45"/>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="45"/>
+      <c r="S33" s="45"/>
+      <c r="T33" s="45"/>
     </row>
     <row r="34" spans="2:20">
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="41"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="41"/>
-      <c r="S34" s="41"/>
-      <c r="T34" s="41"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="45"/>
+      <c r="N34" s="45"/>
+      <c r="O34" s="45"/>
+      <c r="P34" s="45"/>
+      <c r="Q34" s="45"/>
+      <c r="R34" s="45"/>
+      <c r="S34" s="45"/>
+      <c r="T34" s="45"/>
     </row>
     <row r="35" spans="2:20">
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="41"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="41"/>
-      <c r="S35" s="41"/>
-      <c r="T35" s="41"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="45"/>
+      <c r="P35" s="45"/>
+      <c r="Q35" s="45"/>
+      <c r="R35" s="45"/>
+      <c r="S35" s="45"/>
+      <c r="T35" s="45"/>
     </row>
     <row r="36" spans="2:20">
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="41"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="41"/>
-      <c r="S36" s="41"/>
-      <c r="T36" s="41"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
+      <c r="O36" s="45"/>
+      <c r="P36" s="45"/>
+      <c r="Q36" s="45"/>
+      <c r="R36" s="45"/>
+      <c r="S36" s="45"/>
+      <c r="T36" s="45"/>
     </row>
     <row r="37" spans="2:20">
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
-      <c r="O37" s="41"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="41"/>
-      <c r="S37" s="41"/>
-      <c r="T37" s="41"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="45"/>
+      <c r="O37" s="45"/>
+      <c r="P37" s="45"/>
+      <c r="Q37" s="45"/>
+      <c r="R37" s="45"/>
+      <c r="S37" s="45"/>
+      <c r="T37" s="45"/>
     </row>
     <row r="38" spans="2:20">
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="41"/>
-      <c r="O38" s="41"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="41"/>
-      <c r="S38" s="41"/>
-      <c r="T38" s="41"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="45"/>
+      <c r="O38" s="45"/>
+      <c r="P38" s="45"/>
+      <c r="Q38" s="45"/>
+      <c r="R38" s="45"/>
+      <c r="S38" s="45"/>
+      <c r="T38" s="45"/>
     </row>
     <row r="39" spans="2:20">
-      <c r="B39" s="41"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
-      <c r="O39" s="41"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="41"/>
-      <c r="S39" s="41"/>
-      <c r="T39" s="41"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="45"/>
+      <c r="Q39" s="45"/>
+      <c r="R39" s="45"/>
+      <c r="S39" s="45"/>
+      <c r="T39" s="45"/>
     </row>
     <row r="40" spans="2:20">
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="41"/>
-      <c r="O40" s="41"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="41"/>
-      <c r="S40" s="41"/>
-      <c r="T40" s="41"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="45"/>
+      <c r="N40" s="45"/>
+      <c r="O40" s="45"/>
+      <c r="P40" s="45"/>
+      <c r="Q40" s="45"/>
+      <c r="R40" s="45"/>
+      <c r="S40" s="45"/>
+      <c r="T40" s="45"/>
     </row>
     <row r="41" spans="2:20">
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="41"/>
-      <c r="O41" s="41"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="41"/>
-      <c r="R41" s="41"/>
-      <c r="S41" s="41"/>
-      <c r="T41" s="41"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="45"/>
+      <c r="N41" s="45"/>
+      <c r="O41" s="45"/>
+      <c r="P41" s="45"/>
+      <c r="Q41" s="45"/>
+      <c r="R41" s="45"/>
+      <c r="S41" s="45"/>
+      <c r="T41" s="45"/>
     </row>
     <row r="42" spans="2:20">
-      <c r="B42" s="41"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="41"/>
-      <c r="K42" s="41"/>
-      <c r="L42" s="41"/>
-      <c r="M42" s="41"/>
-      <c r="N42" s="41"/>
-      <c r="O42" s="41"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="41"/>
-      <c r="S42" s="41"/>
-      <c r="T42" s="41"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="45"/>
+      <c r="M42" s="45"/>
+      <c r="N42" s="45"/>
+      <c r="O42" s="45"/>
+      <c r="P42" s="45"/>
+      <c r="Q42" s="45"/>
+      <c r="R42" s="45"/>
+      <c r="S42" s="45"/>
+      <c r="T42" s="45"/>
     </row>
     <row r="45" spans="2:20">
-      <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="41"/>
-      <c r="K45" s="41"/>
-      <c r="L45" s="41"/>
-      <c r="M45" s="41"/>
-      <c r="N45" s="41"/>
-      <c r="O45" s="41"/>
-      <c r="P45" s="41"/>
-      <c r="Q45" s="41"/>
-      <c r="R45" s="41"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="45"/>
+      <c r="K45" s="45"/>
+      <c r="L45" s="45"/>
+      <c r="M45" s="45"/>
+      <c r="N45" s="45"/>
+      <c r="O45" s="45"/>
+      <c r="P45" s="45"/>
+      <c r="Q45" s="45"/>
+      <c r="R45" s="45"/>
     </row>
     <row r="46" spans="2:20">
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="41"/>
-      <c r="K46" s="41"/>
-      <c r="L46" s="41"/>
-      <c r="M46" s="41"/>
-      <c r="N46" s="41"/>
-      <c r="O46" s="41"/>
-      <c r="P46" s="41"/>
-      <c r="Q46" s="41"/>
-      <c r="R46" s="41"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="45"/>
+      <c r="J46" s="45"/>
+      <c r="K46" s="45"/>
+      <c r="L46" s="45"/>
+      <c r="M46" s="45"/>
+      <c r="N46" s="45"/>
+      <c r="O46" s="45"/>
+      <c r="P46" s="45"/>
+      <c r="Q46" s="45"/>
+      <c r="R46" s="45"/>
     </row>
     <row r="47" spans="2:20">
-      <c r="B47" s="41"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="41"/>
-      <c r="K47" s="41"/>
-      <c r="L47" s="41"/>
-      <c r="M47" s="41"/>
-      <c r="N47" s="41"/>
-      <c r="O47" s="41"/>
-      <c r="P47" s="41"/>
-      <c r="Q47" s="41"/>
-      <c r="R47" s="41"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="45"/>
+      <c r="J47" s="45"/>
+      <c r="K47" s="45"/>
+      <c r="L47" s="45"/>
+      <c r="M47" s="45"/>
+      <c r="N47" s="45"/>
+      <c r="O47" s="45"/>
+      <c r="P47" s="45"/>
+      <c r="Q47" s="45"/>
+      <c r="R47" s="45"/>
     </row>
     <row r="48" spans="2:20">
-      <c r="B48" s="41"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="41"/>
-      <c r="J48" s="41"/>
-      <c r="K48" s="41"/>
-      <c r="L48" s="41"/>
-      <c r="M48" s="41"/>
-      <c r="N48" s="41"/>
-      <c r="O48" s="41"/>
-      <c r="P48" s="41"/>
-      <c r="Q48" s="41"/>
-      <c r="R48" s="41"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="45"/>
+      <c r="K48" s="45"/>
+      <c r="L48" s="45"/>
+      <c r="M48" s="45"/>
+      <c r="N48" s="45"/>
+      <c r="O48" s="45"/>
+      <c r="P48" s="45"/>
+      <c r="Q48" s="45"/>
+      <c r="R48" s="45"/>
     </row>
     <row r="49" spans="2:18">
-      <c r="B49" s="41"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="41"/>
-      <c r="K49" s="41"/>
-      <c r="L49" s="41"/>
-      <c r="M49" s="41"/>
-      <c r="N49" s="41"/>
-      <c r="O49" s="41"/>
-      <c r="P49" s="41"/>
-      <c r="Q49" s="41"/>
-      <c r="R49" s="41"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="45"/>
+      <c r="L49" s="45"/>
+      <c r="M49" s="45"/>
+      <c r="N49" s="45"/>
+      <c r="O49" s="45"/>
+      <c r="P49" s="45"/>
+      <c r="Q49" s="45"/>
+      <c r="R49" s="45"/>
     </row>
     <row r="50" spans="2:18">
-      <c r="B50" s="41"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="41"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="41"/>
-      <c r="K50" s="41"/>
-      <c r="L50" s="41"/>
-      <c r="M50" s="41"/>
-      <c r="N50" s="41"/>
-      <c r="O50" s="41"/>
-      <c r="P50" s="41"/>
-      <c r="Q50" s="41"/>
-      <c r="R50" s="41"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="45"/>
+      <c r="J50" s="45"/>
+      <c r="K50" s="45"/>
+      <c r="L50" s="45"/>
+      <c r="M50" s="45"/>
+      <c r="N50" s="45"/>
+      <c r="O50" s="45"/>
+      <c r="P50" s="45"/>
+      <c r="Q50" s="45"/>
+      <c r="R50" s="45"/>
     </row>
     <row r="51" spans="2:18">
-      <c r="B51" s="41"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="41"/>
-      <c r="J51" s="41"/>
-      <c r="K51" s="41"/>
-      <c r="L51" s="41"/>
-      <c r="M51" s="41"/>
-      <c r="N51" s="41"/>
-      <c r="O51" s="41"/>
-      <c r="P51" s="41"/>
-      <c r="Q51" s="41"/>
-      <c r="R51" s="41"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="45"/>
+      <c r="J51" s="45"/>
+      <c r="K51" s="45"/>
+      <c r="L51" s="45"/>
+      <c r="M51" s="45"/>
+      <c r="N51" s="45"/>
+      <c r="O51" s="45"/>
+      <c r="P51" s="45"/>
+      <c r="Q51" s="45"/>
+      <c r="R51" s="45"/>
     </row>
     <row r="52" spans="2:18">
-      <c r="B52" s="41"/>
-      <c r="C52" s="41"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="41"/>
-      <c r="K52" s="41"/>
-      <c r="L52" s="41"/>
-      <c r="M52" s="41"/>
-      <c r="N52" s="41"/>
-      <c r="O52" s="41"/>
-      <c r="P52" s="41"/>
-      <c r="Q52" s="41"/>
-      <c r="R52" s="41"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="45"/>
+      <c r="K52" s="45"/>
+      <c r="L52" s="45"/>
+      <c r="M52" s="45"/>
+      <c r="N52" s="45"/>
+      <c r="O52" s="45"/>
+      <c r="P52" s="45"/>
+      <c r="Q52" s="45"/>
+      <c r="R52" s="45"/>
     </row>
     <row r="53" spans="2:18">
-      <c r="B53" s="41"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="41"/>
-      <c r="J53" s="41"/>
-      <c r="K53" s="41"/>
-      <c r="L53" s="41"/>
-      <c r="M53" s="41"/>
-      <c r="N53" s="41"/>
-      <c r="O53" s="41"/>
-      <c r="P53" s="41"/>
-      <c r="Q53" s="41"/>
-      <c r="R53" s="41"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="45"/>
+      <c r="J53" s="45"/>
+      <c r="K53" s="45"/>
+      <c r="L53" s="45"/>
+      <c r="M53" s="45"/>
+      <c r="N53" s="45"/>
+      <c r="O53" s="45"/>
+      <c r="P53" s="45"/>
+      <c r="Q53" s="45"/>
+      <c r="R53" s="45"/>
     </row>
     <row r="54" spans="2:18">
-      <c r="B54" s="41"/>
-      <c r="C54" s="41"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="41"/>
-      <c r="H54" s="41"/>
-      <c r="I54" s="41"/>
-      <c r="J54" s="41"/>
-      <c r="K54" s="41"/>
-      <c r="L54" s="41"/>
-      <c r="M54" s="41"/>
-      <c r="N54" s="41"/>
-      <c r="O54" s="41"/>
-      <c r="P54" s="41"/>
-      <c r="Q54" s="41"/>
-      <c r="R54" s="41"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="45"/>
+      <c r="L54" s="45"/>
+      <c r="M54" s="45"/>
+      <c r="N54" s="45"/>
+      <c r="O54" s="45"/>
+      <c r="P54" s="45"/>
+      <c r="Q54" s="45"/>
+      <c r="R54" s="45"/>
     </row>
     <row r="55" spans="2:18">
-      <c r="B55" s="41"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
-      <c r="I55" s="41"/>
-      <c r="J55" s="41"/>
-      <c r="K55" s="41"/>
-      <c r="L55" s="41"/>
-      <c r="M55" s="41"/>
-      <c r="N55" s="41"/>
-      <c r="O55" s="41"/>
-      <c r="P55" s="41"/>
-      <c r="Q55" s="41"/>
-      <c r="R55" s="41"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="45"/>
+      <c r="J55" s="45"/>
+      <c r="K55" s="45"/>
+      <c r="L55" s="45"/>
+      <c r="M55" s="45"/>
+      <c r="N55" s="45"/>
+      <c r="O55" s="45"/>
+      <c r="P55" s="45"/>
+      <c r="Q55" s="45"/>
+      <c r="R55" s="45"/>
     </row>
     <row r="56" spans="2:18">
-      <c r="B56" s="41"/>
-      <c r="C56" s="41"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="41"/>
-      <c r="I56" s="41"/>
-      <c r="J56" s="41"/>
-      <c r="K56" s="41"/>
-      <c r="L56" s="41"/>
-      <c r="M56" s="41"/>
-      <c r="N56" s="41"/>
-      <c r="O56" s="41"/>
-      <c r="P56" s="41"/>
-      <c r="Q56" s="41"/>
-      <c r="R56" s="41"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="45"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="45"/>
+      <c r="J56" s="45"/>
+      <c r="K56" s="45"/>
+      <c r="L56" s="45"/>
+      <c r="M56" s="45"/>
+      <c r="N56" s="45"/>
+      <c r="O56" s="45"/>
+      <c r="P56" s="45"/>
+      <c r="Q56" s="45"/>
+      <c r="R56" s="45"/>
     </row>
     <row r="57" spans="2:18">
-      <c r="B57" s="41"/>
-      <c r="C57" s="41"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="41"/>
-      <c r="I57" s="41"/>
-      <c r="J57" s="41"/>
-      <c r="K57" s="41"/>
-      <c r="L57" s="41"/>
-      <c r="M57" s="41"/>
-      <c r="N57" s="41"/>
-      <c r="O57" s="41"/>
-      <c r="P57" s="41"/>
-      <c r="Q57" s="41"/>
-      <c r="R57" s="41"/>
+      <c r="B57" s="45"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="45"/>
+      <c r="E57" s="45"/>
+      <c r="F57" s="45"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="45"/>
+      <c r="J57" s="45"/>
+      <c r="K57" s="45"/>
+      <c r="L57" s="45"/>
+      <c r="M57" s="45"/>
+      <c r="N57" s="45"/>
+      <c r="O57" s="45"/>
+      <c r="P57" s="45"/>
+      <c r="Q57" s="45"/>
+      <c r="R57" s="45"/>
     </row>
     <row r="58" spans="2:18">
-      <c r="B58" s="41"/>
-      <c r="C58" s="41"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41"/>
-      <c r="H58" s="41"/>
-      <c r="I58" s="41"/>
-      <c r="J58" s="41"/>
-      <c r="K58" s="41"/>
-      <c r="L58" s="41"/>
-      <c r="M58" s="41"/>
-      <c r="N58" s="41"/>
-      <c r="O58" s="41"/>
-      <c r="P58" s="41"/>
-      <c r="Q58" s="41"/>
-      <c r="R58" s="41"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="45"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="45"/>
+      <c r="J58" s="45"/>
+      <c r="K58" s="45"/>
+      <c r="L58" s="45"/>
+      <c r="M58" s="45"/>
+      <c r="N58" s="45"/>
+      <c r="O58" s="45"/>
+      <c r="P58" s="45"/>
+      <c r="Q58" s="45"/>
+      <c r="R58" s="45"/>
     </row>
     <row r="59" spans="2:18">
-      <c r="B59" s="41"/>
-      <c r="C59" s="41"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="41"/>
-      <c r="H59" s="41"/>
-      <c r="I59" s="41"/>
-      <c r="J59" s="41"/>
-      <c r="K59" s="41"/>
-      <c r="L59" s="41"/>
-      <c r="M59" s="41"/>
-      <c r="N59" s="41"/>
-      <c r="O59" s="41"/>
-      <c r="P59" s="41"/>
-      <c r="Q59" s="41"/>
-      <c r="R59" s="41"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="45"/>
+      <c r="J59" s="45"/>
+      <c r="K59" s="45"/>
+      <c r="L59" s="45"/>
+      <c r="M59" s="45"/>
+      <c r="N59" s="45"/>
+      <c r="O59" s="45"/>
+      <c r="P59" s="45"/>
+      <c r="Q59" s="45"/>
+      <c r="R59" s="45"/>
     </row>
     <row r="60" spans="2:18">
-      <c r="B60" s="41"/>
-      <c r="C60" s="41"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="41"/>
-      <c r="G60" s="41"/>
-      <c r="H60" s="41"/>
-      <c r="I60" s="41"/>
-      <c r="J60" s="41"/>
-      <c r="K60" s="41"/>
-      <c r="L60" s="41"/>
-      <c r="M60" s="41"/>
-      <c r="N60" s="41"/>
-      <c r="O60" s="41"/>
-      <c r="P60" s="41"/>
-      <c r="Q60" s="41"/>
-      <c r="R60" s="41"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="45"/>
+      <c r="E60" s="45"/>
+      <c r="F60" s="45"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="45"/>
+      <c r="J60" s="45"/>
+      <c r="K60" s="45"/>
+      <c r="L60" s="45"/>
+      <c r="M60" s="45"/>
+      <c r="N60" s="45"/>
+      <c r="O60" s="45"/>
+      <c r="P60" s="45"/>
+      <c r="Q60" s="45"/>
+      <c r="R60" s="45"/>
     </row>
     <row r="61" spans="2:18">
-      <c r="B61" s="41"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="41"/>
-      <c r="G61" s="41"/>
-      <c r="H61" s="41"/>
-      <c r="I61" s="41"/>
-      <c r="J61" s="41"/>
-      <c r="K61" s="41"/>
-      <c r="L61" s="41"/>
-      <c r="M61" s="41"/>
-      <c r="N61" s="41"/>
-      <c r="O61" s="41"/>
-      <c r="P61" s="41"/>
-      <c r="Q61" s="41"/>
-      <c r="R61" s="41"/>
+      <c r="B61" s="45"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="45"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="45"/>
+      <c r="J61" s="45"/>
+      <c r="K61" s="45"/>
+      <c r="L61" s="45"/>
+      <c r="M61" s="45"/>
+      <c r="N61" s="45"/>
+      <c r="O61" s="45"/>
+      <c r="P61" s="45"/>
+      <c r="Q61" s="45"/>
+      <c r="R61" s="45"/>
     </row>
     <row r="62" spans="2:18">
-      <c r="B62" s="41"/>
-      <c r="C62" s="41"/>
-      <c r="D62" s="41"/>
-      <c r="E62" s="41"/>
-      <c r="F62" s="41"/>
-      <c r="G62" s="41"/>
-      <c r="H62" s="41"/>
-      <c r="I62" s="41"/>
-      <c r="J62" s="41"/>
-      <c r="K62" s="41"/>
-      <c r="L62" s="41"/>
-      <c r="M62" s="41"/>
-      <c r="N62" s="41"/>
-      <c r="O62" s="41"/>
-      <c r="P62" s="41"/>
-      <c r="Q62" s="41"/>
-      <c r="R62" s="41"/>
+      <c r="B62" s="45"/>
+      <c r="C62" s="45"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="45"/>
+      <c r="F62" s="45"/>
+      <c r="G62" s="45"/>
+      <c r="H62" s="45"/>
+      <c r="I62" s="45"/>
+      <c r="J62" s="45"/>
+      <c r="K62" s="45"/>
+      <c r="L62" s="45"/>
+      <c r="M62" s="45"/>
+      <c r="N62" s="45"/>
+      <c r="O62" s="45"/>
+      <c r="P62" s="45"/>
+      <c r="Q62" s="45"/>
+      <c r="R62" s="45"/>
     </row>
     <row r="63" spans="2:18">
-      <c r="B63" s="41"/>
-      <c r="C63" s="41"/>
-      <c r="D63" s="41"/>
-      <c r="E63" s="41"/>
-      <c r="F63" s="41"/>
-      <c r="G63" s="41"/>
-      <c r="H63" s="41"/>
-      <c r="I63" s="41"/>
-      <c r="J63" s="41"/>
-      <c r="K63" s="41"/>
-      <c r="L63" s="41"/>
-      <c r="M63" s="41"/>
-      <c r="N63" s="41"/>
-      <c r="O63" s="41"/>
-      <c r="P63" s="41"/>
-      <c r="Q63" s="41"/>
-      <c r="R63" s="41"/>
+      <c r="B63" s="45"/>
+      <c r="C63" s="45"/>
+      <c r="D63" s="45"/>
+      <c r="E63" s="45"/>
+      <c r="F63" s="45"/>
+      <c r="G63" s="45"/>
+      <c r="H63" s="45"/>
+      <c r="I63" s="45"/>
+      <c r="J63" s="45"/>
+      <c r="K63" s="45"/>
+      <c r="L63" s="45"/>
+      <c r="M63" s="45"/>
+      <c r="N63" s="45"/>
+      <c r="O63" s="45"/>
+      <c r="P63" s="45"/>
+      <c r="Q63" s="45"/>
+      <c r="R63" s="45"/>
     </row>
     <row r="64" spans="2:18">
-      <c r="B64" s="41"/>
-      <c r="C64" s="41"/>
-      <c r="D64" s="41"/>
-      <c r="E64" s="41"/>
-      <c r="F64" s="41"/>
-      <c r="G64" s="41"/>
-      <c r="H64" s="41"/>
-      <c r="I64" s="41"/>
-      <c r="J64" s="41"/>
-      <c r="K64" s="41"/>
-      <c r="L64" s="41"/>
-      <c r="M64" s="41"/>
-      <c r="N64" s="41"/>
-      <c r="O64" s="41"/>
-      <c r="P64" s="41"/>
-      <c r="Q64" s="41"/>
-      <c r="R64" s="41"/>
+      <c r="B64" s="45"/>
+      <c r="C64" s="45"/>
+      <c r="D64" s="45"/>
+      <c r="E64" s="45"/>
+      <c r="F64" s="45"/>
+      <c r="G64" s="45"/>
+      <c r="H64" s="45"/>
+      <c r="I64" s="45"/>
+      <c r="J64" s="45"/>
+      <c r="K64" s="45"/>
+      <c r="L64" s="45"/>
+      <c r="M64" s="45"/>
+      <c r="N64" s="45"/>
+      <c r="O64" s="45"/>
+      <c r="P64" s="45"/>
+      <c r="Q64" s="45"/>
+      <c r="R64" s="45"/>
     </row>
     <row r="65" spans="2:18">
-      <c r="B65" s="41"/>
-      <c r="C65" s="41"/>
-      <c r="D65" s="41"/>
-      <c r="E65" s="41"/>
-      <c r="F65" s="41"/>
-      <c r="G65" s="41"/>
-      <c r="H65" s="41"/>
-      <c r="I65" s="41"/>
-      <c r="J65" s="41"/>
-      <c r="K65" s="41"/>
-      <c r="L65" s="41"/>
-      <c r="M65" s="41"/>
-      <c r="N65" s="41"/>
-      <c r="O65" s="41"/>
-      <c r="P65" s="41"/>
-      <c r="Q65" s="41"/>
-      <c r="R65" s="41"/>
+      <c r="B65" s="45"/>
+      <c r="C65" s="45"/>
+      <c r="D65" s="45"/>
+      <c r="E65" s="45"/>
+      <c r="F65" s="45"/>
+      <c r="G65" s="45"/>
+      <c r="H65" s="45"/>
+      <c r="I65" s="45"/>
+      <c r="J65" s="45"/>
+      <c r="K65" s="45"/>
+      <c r="L65" s="45"/>
+      <c r="M65" s="45"/>
+      <c r="N65" s="45"/>
+      <c r="O65" s="45"/>
+      <c r="P65" s="45"/>
+      <c r="Q65" s="45"/>
+      <c r="R65" s="45"/>
     </row>
     <row r="66" spans="2:18">
-      <c r="B66" s="41"/>
-      <c r="C66" s="41"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="41"/>
-      <c r="F66" s="41"/>
-      <c r="G66" s="41"/>
-      <c r="H66" s="41"/>
-      <c r="I66" s="41"/>
-      <c r="J66" s="41"/>
-      <c r="K66" s="41"/>
-      <c r="L66" s="41"/>
-      <c r="M66" s="41"/>
-      <c r="N66" s="41"/>
-      <c r="O66" s="41"/>
-      <c r="P66" s="41"/>
-      <c r="Q66" s="41"/>
-      <c r="R66" s="41"/>
+      <c r="B66" s="45"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="45"/>
+      <c r="F66" s="45"/>
+      <c r="G66" s="45"/>
+      <c r="H66" s="45"/>
+      <c r="I66" s="45"/>
+      <c r="J66" s="45"/>
+      <c r="K66" s="45"/>
+      <c r="L66" s="45"/>
+      <c r="M66" s="45"/>
+      <c r="N66" s="45"/>
+      <c r="O66" s="45"/>
+      <c r="P66" s="45"/>
+      <c r="Q66" s="45"/>
+      <c r="R66" s="45"/>
     </row>
     <row r="67" spans="2:18">
-      <c r="B67" s="41"/>
-      <c r="C67" s="41"/>
-      <c r="D67" s="41"/>
-      <c r="E67" s="41"/>
-      <c r="F67" s="41"/>
-      <c r="G67" s="41"/>
-      <c r="H67" s="41"/>
-      <c r="I67" s="41"/>
-      <c r="J67" s="41"/>
-      <c r="K67" s="41"/>
-      <c r="L67" s="41"/>
-      <c r="M67" s="41"/>
-      <c r="N67" s="41"/>
-      <c r="O67" s="41"/>
-      <c r="P67" s="41"/>
-      <c r="Q67" s="41"/>
-      <c r="R67" s="41"/>
+      <c r="B67" s="45"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="45"/>
+      <c r="F67" s="45"/>
+      <c r="G67" s="45"/>
+      <c r="H67" s="45"/>
+      <c r="I67" s="45"/>
+      <c r="J67" s="45"/>
+      <c r="K67" s="45"/>
+      <c r="L67" s="45"/>
+      <c r="M67" s="45"/>
+      <c r="N67" s="45"/>
+      <c r="O67" s="45"/>
+      <c r="P67" s="45"/>
+      <c r="Q67" s="45"/>
+      <c r="R67" s="45"/>
     </row>
     <row r="68" spans="2:18">
-      <c r="B68" s="41"/>
-      <c r="C68" s="41"/>
-      <c r="D68" s="41"/>
-      <c r="E68" s="41"/>
-      <c r="F68" s="41"/>
-      <c r="G68" s="41"/>
-      <c r="H68" s="41"/>
-      <c r="I68" s="41"/>
-      <c r="J68" s="41"/>
-      <c r="K68" s="41"/>
-      <c r="L68" s="41"/>
-      <c r="M68" s="41"/>
-      <c r="N68" s="41"/>
-      <c r="O68" s="41"/>
-      <c r="P68" s="41"/>
-      <c r="Q68" s="41"/>
-      <c r="R68" s="41"/>
+      <c r="B68" s="45"/>
+      <c r="C68" s="45"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="45"/>
+      <c r="F68" s="45"/>
+      <c r="G68" s="45"/>
+      <c r="H68" s="45"/>
+      <c r="I68" s="45"/>
+      <c r="J68" s="45"/>
+      <c r="K68" s="45"/>
+      <c r="L68" s="45"/>
+      <c r="M68" s="45"/>
+      <c r="N68" s="45"/>
+      <c r="O68" s="45"/>
+      <c r="P68" s="45"/>
+      <c r="Q68" s="45"/>
+      <c r="R68" s="45"/>
     </row>
     <row r="69" spans="2:18">
-      <c r="B69" s="41"/>
-      <c r="C69" s="41"/>
-      <c r="D69" s="41"/>
-      <c r="E69" s="41"/>
-      <c r="F69" s="41"/>
-      <c r="G69" s="41"/>
-      <c r="H69" s="41"/>
-      <c r="I69" s="41"/>
-      <c r="J69" s="41"/>
-      <c r="K69" s="41"/>
-      <c r="L69" s="41"/>
-      <c r="M69" s="41"/>
-      <c r="N69" s="41"/>
-      <c r="O69" s="41"/>
-      <c r="P69" s="41"/>
-      <c r="Q69" s="41"/>
-      <c r="R69" s="41"/>
+      <c r="B69" s="45"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="45"/>
+      <c r="F69" s="45"/>
+      <c r="G69" s="45"/>
+      <c r="H69" s="45"/>
+      <c r="I69" s="45"/>
+      <c r="J69" s="45"/>
+      <c r="K69" s="45"/>
+      <c r="L69" s="45"/>
+      <c r="M69" s="45"/>
+      <c r="N69" s="45"/>
+      <c r="O69" s="45"/>
+      <c r="P69" s="45"/>
+      <c r="Q69" s="45"/>
+      <c r="R69" s="45"/>
     </row>
     <row r="70" spans="2:18">
-      <c r="B70" s="41"/>
-      <c r="C70" s="41"/>
-      <c r="D70" s="41"/>
-      <c r="E70" s="41"/>
-      <c r="F70" s="41"/>
-      <c r="G70" s="41"/>
-      <c r="H70" s="41"/>
-      <c r="I70" s="41"/>
-      <c r="J70" s="41"/>
-      <c r="K70" s="41"/>
-      <c r="L70" s="41"/>
-      <c r="M70" s="41"/>
-      <c r="N70" s="41"/>
-      <c r="O70" s="41"/>
-      <c r="P70" s="41"/>
-      <c r="Q70" s="41"/>
-      <c r="R70" s="41"/>
+      <c r="B70" s="45"/>
+      <c r="C70" s="45"/>
+      <c r="D70" s="45"/>
+      <c r="E70" s="45"/>
+      <c r="F70" s="45"/>
+      <c r="G70" s="45"/>
+      <c r="H70" s="45"/>
+      <c r="I70" s="45"/>
+      <c r="J70" s="45"/>
+      <c r="K70" s="45"/>
+      <c r="L70" s="45"/>
+      <c r="M70" s="45"/>
+      <c r="N70" s="45"/>
+      <c r="O70" s="45"/>
+      <c r="P70" s="45"/>
+      <c r="Q70" s="45"/>
+      <c r="R70" s="45"/>
     </row>
     <row r="71" spans="2:18">
-      <c r="B71" s="41"/>
-      <c r="C71" s="41"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="41"/>
-      <c r="F71" s="41"/>
-      <c r="G71" s="41"/>
-      <c r="H71" s="41"/>
-      <c r="I71" s="41"/>
-      <c r="J71" s="41"/>
-      <c r="K71" s="41"/>
-      <c r="L71" s="41"/>
-      <c r="M71" s="41"/>
-      <c r="N71" s="41"/>
-      <c r="O71" s="41"/>
-      <c r="P71" s="41"/>
-      <c r="Q71" s="41"/>
-      <c r="R71" s="41"/>
+      <c r="B71" s="45"/>
+      <c r="C71" s="45"/>
+      <c r="D71" s="45"/>
+      <c r="E71" s="45"/>
+      <c r="F71" s="45"/>
+      <c r="G71" s="45"/>
+      <c r="H71" s="45"/>
+      <c r="I71" s="45"/>
+      <c r="J71" s="45"/>
+      <c r="K71" s="45"/>
+      <c r="L71" s="45"/>
+      <c r="M71" s="45"/>
+      <c r="N71" s="45"/>
+      <c r="O71" s="45"/>
+      <c r="P71" s="45"/>
+      <c r="Q71" s="45"/>
+      <c r="R71" s="45"/>
     </row>
     <row r="72" spans="2:18">
-      <c r="B72" s="41"/>
-      <c r="C72" s="41"/>
-      <c r="D72" s="41"/>
-      <c r="E72" s="41"/>
-      <c r="F72" s="41"/>
-      <c r="G72" s="41"/>
-      <c r="H72" s="41"/>
-      <c r="I72" s="41"/>
-      <c r="J72" s="41"/>
-      <c r="K72" s="41"/>
-      <c r="L72" s="41"/>
-      <c r="M72" s="41"/>
-      <c r="N72" s="41"/>
-      <c r="O72" s="41"/>
-      <c r="P72" s="41"/>
-      <c r="Q72" s="41"/>
-      <c r="R72" s="41"/>
+      <c r="B72" s="45"/>
+      <c r="C72" s="45"/>
+      <c r="D72" s="45"/>
+      <c r="E72" s="45"/>
+      <c r="F72" s="45"/>
+      <c r="G72" s="45"/>
+      <c r="H72" s="45"/>
+      <c r="I72" s="45"/>
+      <c r="J72" s="45"/>
+      <c r="K72" s="45"/>
+      <c r="L72" s="45"/>
+      <c r="M72" s="45"/>
+      <c r="N72" s="45"/>
+      <c r="O72" s="45"/>
+      <c r="P72" s="45"/>
+      <c r="Q72" s="45"/>
+      <c r="R72" s="45"/>
     </row>
     <row r="101" spans="3:17">
-      <c r="C101" s="41"/>
-      <c r="D101" s="41"/>
-      <c r="E101" s="41"/>
-      <c r="F101" s="41"/>
-      <c r="G101" s="41"/>
-      <c r="H101" s="41"/>
-      <c r="I101" s="41"/>
-      <c r="J101" s="41"/>
-      <c r="K101" s="41"/>
-      <c r="L101" s="41"/>
-      <c r="M101" s="41"/>
-      <c r="N101" s="41"/>
-      <c r="O101" s="41"/>
-      <c r="P101" s="41"/>
-      <c r="Q101" s="41"/>
+      <c r="C101" s="45"/>
+      <c r="D101" s="45"/>
+      <c r="E101" s="45"/>
+      <c r="F101" s="45"/>
+      <c r="G101" s="45"/>
+      <c r="H101" s="45"/>
+      <c r="I101" s="45"/>
+      <c r="J101" s="45"/>
+      <c r="K101" s="45"/>
+      <c r="L101" s="45"/>
+      <c r="M101" s="45"/>
+      <c r="N101" s="45"/>
+      <c r="O101" s="45"/>
+      <c r="P101" s="45"/>
+      <c r="Q101" s="45"/>
     </row>
     <row r="102" spans="3:17">
-      <c r="C102" s="41"/>
-      <c r="D102" s="41"/>
-      <c r="E102" s="41"/>
-      <c r="F102" s="41"/>
-      <c r="G102" s="41"/>
-      <c r="H102" s="41"/>
-      <c r="I102" s="41"/>
-      <c r="J102" s="41"/>
-      <c r="K102" s="41"/>
-      <c r="L102" s="41"/>
-      <c r="M102" s="41"/>
-      <c r="N102" s="41"/>
-      <c r="O102" s="41"/>
-      <c r="P102" s="41"/>
-      <c r="Q102" s="41"/>
+      <c r="C102" s="45"/>
+      <c r="D102" s="45"/>
+      <c r="E102" s="45"/>
+      <c r="F102" s="45"/>
+      <c r="G102" s="45"/>
+      <c r="H102" s="45"/>
+      <c r="I102" s="45"/>
+      <c r="J102" s="45"/>
+      <c r="K102" s="45"/>
+      <c r="L102" s="45"/>
+      <c r="M102" s="45"/>
+      <c r="N102" s="45"/>
+      <c r="O102" s="45"/>
+      <c r="P102" s="45"/>
+      <c r="Q102" s="45"/>
     </row>
     <row r="103" spans="3:17">
-      <c r="C103" s="41"/>
-      <c r="D103" s="41"/>
-      <c r="E103" s="41"/>
-      <c r="F103" s="41"/>
-      <c r="G103" s="41"/>
-      <c r="H103" s="41"/>
-      <c r="I103" s="41"/>
-      <c r="J103" s="41"/>
-      <c r="K103" s="41"/>
-      <c r="L103" s="41"/>
-      <c r="M103" s="41"/>
-      <c r="N103" s="41"/>
-      <c r="O103" s="41"/>
-      <c r="P103" s="41"/>
-      <c r="Q103" s="41"/>
+      <c r="C103" s="45"/>
+      <c r="D103" s="45"/>
+      <c r="E103" s="45"/>
+      <c r="F103" s="45"/>
+      <c r="G103" s="45"/>
+      <c r="H103" s="45"/>
+      <c r="I103" s="45"/>
+      <c r="J103" s="45"/>
+      <c r="K103" s="45"/>
+      <c r="L103" s="45"/>
+      <c r="M103" s="45"/>
+      <c r="N103" s="45"/>
+      <c r="O103" s="45"/>
+      <c r="P103" s="45"/>
+      <c r="Q103" s="45"/>
     </row>
     <row r="104" spans="3:17">
-      <c r="C104" s="41"/>
-      <c r="D104" s="41"/>
-      <c r="E104" s="41"/>
-      <c r="F104" s="41"/>
-      <c r="G104" s="41"/>
-      <c r="H104" s="41"/>
-      <c r="I104" s="41"/>
-      <c r="J104" s="41"/>
-      <c r="K104" s="41"/>
-      <c r="L104" s="41"/>
-      <c r="M104" s="41"/>
-      <c r="N104" s="41"/>
-      <c r="O104" s="41"/>
-      <c r="P104" s="41"/>
-      <c r="Q104" s="41"/>
+      <c r="C104" s="45"/>
+      <c r="D104" s="45"/>
+      <c r="E104" s="45"/>
+      <c r="F104" s="45"/>
+      <c r="G104" s="45"/>
+      <c r="H104" s="45"/>
+      <c r="I104" s="45"/>
+      <c r="J104" s="45"/>
+      <c r="K104" s="45"/>
+      <c r="L104" s="45"/>
+      <c r="M104" s="45"/>
+      <c r="N104" s="45"/>
+      <c r="O104" s="45"/>
+      <c r="P104" s="45"/>
+      <c r="Q104" s="45"/>
     </row>
     <row r="105" spans="3:17">
-      <c r="C105" s="41"/>
-      <c r="D105" s="41"/>
-      <c r="E105" s="41"/>
-      <c r="F105" s="41"/>
-      <c r="G105" s="41"/>
-      <c r="H105" s="41"/>
-      <c r="I105" s="41"/>
-      <c r="J105" s="41"/>
-      <c r="K105" s="41"/>
-      <c r="L105" s="41"/>
-      <c r="M105" s="41"/>
-      <c r="N105" s="41"/>
-      <c r="O105" s="41"/>
-      <c r="P105" s="41"/>
-      <c r="Q105" s="41"/>
+      <c r="C105" s="45"/>
+      <c r="D105" s="45"/>
+      <c r="E105" s="45"/>
+      <c r="F105" s="45"/>
+      <c r="G105" s="45"/>
+      <c r="H105" s="45"/>
+      <c r="I105" s="45"/>
+      <c r="J105" s="45"/>
+      <c r="K105" s="45"/>
+      <c r="L105" s="45"/>
+      <c r="M105" s="45"/>
+      <c r="N105" s="45"/>
+      <c r="O105" s="45"/>
+      <c r="P105" s="45"/>
+      <c r="Q105" s="45"/>
     </row>
     <row r="106" spans="3:17">
-      <c r="C106" s="41"/>
-      <c r="D106" s="41"/>
-      <c r="E106" s="41"/>
-      <c r="F106" s="41"/>
-      <c r="G106" s="41"/>
-      <c r="H106" s="41"/>
-      <c r="I106" s="41"/>
-      <c r="J106" s="41"/>
-      <c r="K106" s="41"/>
-      <c r="L106" s="41"/>
-      <c r="M106" s="41"/>
-      <c r="N106" s="41"/>
-      <c r="O106" s="41"/>
-      <c r="P106" s="41"/>
-      <c r="Q106" s="41"/>
+      <c r="C106" s="45"/>
+      <c r="D106" s="45"/>
+      <c r="E106" s="45"/>
+      <c r="F106" s="45"/>
+      <c r="G106" s="45"/>
+      <c r="H106" s="45"/>
+      <c r="I106" s="45"/>
+      <c r="J106" s="45"/>
+      <c r="K106" s="45"/>
+      <c r="L106" s="45"/>
+      <c r="M106" s="45"/>
+      <c r="N106" s="45"/>
+      <c r="O106" s="45"/>
+      <c r="P106" s="45"/>
+      <c r="Q106" s="45"/>
     </row>
     <row r="107" spans="3:17">
-      <c r="C107" s="41"/>
-      <c r="D107" s="41"/>
-      <c r="E107" s="41"/>
-      <c r="F107" s="41"/>
-      <c r="G107" s="41"/>
-      <c r="H107" s="41"/>
-      <c r="I107" s="41"/>
-      <c r="J107" s="41"/>
-      <c r="K107" s="41"/>
-      <c r="L107" s="41"/>
-      <c r="M107" s="41"/>
-      <c r="N107" s="41"/>
-      <c r="O107" s="41"/>
-      <c r="P107" s="41"/>
-      <c r="Q107" s="41"/>
+      <c r="C107" s="45"/>
+      <c r="D107" s="45"/>
+      <c r="E107" s="45"/>
+      <c r="F107" s="45"/>
+      <c r="G107" s="45"/>
+      <c r="H107" s="45"/>
+      <c r="I107" s="45"/>
+      <c r="J107" s="45"/>
+      <c r="K107" s="45"/>
+      <c r="L107" s="45"/>
+      <c r="M107" s="45"/>
+      <c r="N107" s="45"/>
+      <c r="O107" s="45"/>
+      <c r="P107" s="45"/>
+      <c r="Q107" s="45"/>
     </row>
     <row r="108" spans="3:17">
-      <c r="C108" s="41"/>
-      <c r="D108" s="41"/>
-      <c r="E108" s="41"/>
-      <c r="F108" s="41"/>
-      <c r="G108" s="41"/>
-      <c r="H108" s="41"/>
-      <c r="I108" s="41"/>
-      <c r="J108" s="41"/>
-      <c r="K108" s="41"/>
-      <c r="L108" s="41"/>
-      <c r="M108" s="41"/>
-      <c r="N108" s="41"/>
-      <c r="O108" s="41"/>
-      <c r="P108" s="41"/>
-      <c r="Q108" s="41"/>
+      <c r="C108" s="45"/>
+      <c r="D108" s="45"/>
+      <c r="E108" s="45"/>
+      <c r="F108" s="45"/>
+      <c r="G108" s="45"/>
+      <c r="H108" s="45"/>
+      <c r="I108" s="45"/>
+      <c r="J108" s="45"/>
+      <c r="K108" s="45"/>
+      <c r="L108" s="45"/>
+      <c r="M108" s="45"/>
+      <c r="N108" s="45"/>
+      <c r="O108" s="45"/>
+      <c r="P108" s="45"/>
+      <c r="Q108" s="45"/>
     </row>
     <row r="109" spans="3:17">
-      <c r="C109" s="41"/>
-      <c r="D109" s="41"/>
-      <c r="E109" s="41"/>
-      <c r="F109" s="41"/>
-      <c r="G109" s="41"/>
-      <c r="H109" s="41"/>
-      <c r="I109" s="41"/>
-      <c r="J109" s="41"/>
-      <c r="K109" s="41"/>
-      <c r="L109" s="41"/>
-      <c r="M109" s="41"/>
-      <c r="N109" s="41"/>
-      <c r="O109" s="41"/>
-      <c r="P109" s="41"/>
-      <c r="Q109" s="41"/>
+      <c r="C109" s="45"/>
+      <c r="D109" s="45"/>
+      <c r="E109" s="45"/>
+      <c r="F109" s="45"/>
+      <c r="G109" s="45"/>
+      <c r="H109" s="45"/>
+      <c r="I109" s="45"/>
+      <c r="J109" s="45"/>
+      <c r="K109" s="45"/>
+      <c r="L109" s="45"/>
+      <c r="M109" s="45"/>
+      <c r="N109" s="45"/>
+      <c r="O109" s="45"/>
+      <c r="P109" s="45"/>
+      <c r="Q109" s="45"/>
     </row>
     <row r="110" spans="3:17">
-      <c r="C110" s="41"/>
-      <c r="D110" s="41"/>
-      <c r="E110" s="41"/>
-      <c r="F110" s="41"/>
-      <c r="G110" s="41"/>
-      <c r="H110" s="41"/>
-      <c r="I110" s="41"/>
-      <c r="J110" s="41"/>
-      <c r="K110" s="41"/>
-      <c r="L110" s="41"/>
-      <c r="M110" s="41"/>
-      <c r="N110" s="41"/>
-      <c r="O110" s="41"/>
-      <c r="P110" s="41"/>
-      <c r="Q110" s="41"/>
+      <c r="C110" s="45"/>
+      <c r="D110" s="45"/>
+      <c r="E110" s="45"/>
+      <c r="F110" s="45"/>
+      <c r="G110" s="45"/>
+      <c r="H110" s="45"/>
+      <c r="I110" s="45"/>
+      <c r="J110" s="45"/>
+      <c r="K110" s="45"/>
+      <c r="L110" s="45"/>
+      <c r="M110" s="45"/>
+      <c r="N110" s="45"/>
+      <c r="O110" s="45"/>
+      <c r="P110" s="45"/>
+      <c r="Q110" s="45"/>
     </row>
     <row r="111" spans="3:17">
-      <c r="C111" s="41"/>
-      <c r="D111" s="41"/>
-      <c r="E111" s="41"/>
-      <c r="F111" s="41"/>
-      <c r="G111" s="41"/>
-      <c r="H111" s="41"/>
-      <c r="I111" s="41"/>
-      <c r="J111" s="41"/>
-      <c r="K111" s="41"/>
-      <c r="L111" s="41"/>
-      <c r="M111" s="41"/>
-      <c r="N111" s="41"/>
-      <c r="O111" s="41"/>
-      <c r="P111" s="41"/>
-      <c r="Q111" s="41"/>
+      <c r="C111" s="45"/>
+      <c r="D111" s="45"/>
+      <c r="E111" s="45"/>
+      <c r="F111" s="45"/>
+      <c r="G111" s="45"/>
+      <c r="H111" s="45"/>
+      <c r="I111" s="45"/>
+      <c r="J111" s="45"/>
+      <c r="K111" s="45"/>
+      <c r="L111" s="45"/>
+      <c r="M111" s="45"/>
+      <c r="N111" s="45"/>
+      <c r="O111" s="45"/>
+      <c r="P111" s="45"/>
+      <c r="Q111" s="45"/>
     </row>
     <row r="112" spans="3:17">
-      <c r="C112" s="41"/>
-      <c r="D112" s="41"/>
-      <c r="E112" s="41"/>
-      <c r="F112" s="41"/>
-      <c r="G112" s="41"/>
-      <c r="H112" s="41"/>
-      <c r="I112" s="41"/>
-      <c r="J112" s="41"/>
-      <c r="K112" s="41"/>
-      <c r="L112" s="41"/>
-      <c r="M112" s="41"/>
-      <c r="N112" s="41"/>
-      <c r="O112" s="41"/>
-      <c r="P112" s="41"/>
-      <c r="Q112" s="41"/>
+      <c r="C112" s="45"/>
+      <c r="D112" s="45"/>
+      <c r="E112" s="45"/>
+      <c r="F112" s="45"/>
+      <c r="G112" s="45"/>
+      <c r="H112" s="45"/>
+      <c r="I112" s="45"/>
+      <c r="J112" s="45"/>
+      <c r="K112" s="45"/>
+      <c r="L112" s="45"/>
+      <c r="M112" s="45"/>
+      <c r="N112" s="45"/>
+      <c r="O112" s="45"/>
+      <c r="P112" s="45"/>
+      <c r="Q112" s="45"/>
     </row>
     <row r="113" spans="3:17">
-      <c r="C113" s="41"/>
-      <c r="D113" s="41"/>
-      <c r="E113" s="41"/>
-      <c r="F113" s="41"/>
-      <c r="G113" s="41"/>
-      <c r="H113" s="41"/>
-      <c r="I113" s="41"/>
-      <c r="J113" s="41"/>
-      <c r="K113" s="41"/>
-      <c r="L113" s="41"/>
-      <c r="M113" s="41"/>
-      <c r="N113" s="41"/>
-      <c r="O113" s="41"/>
-      <c r="P113" s="41"/>
-      <c r="Q113" s="41"/>
+      <c r="C113" s="45"/>
+      <c r="D113" s="45"/>
+      <c r="E113" s="45"/>
+      <c r="F113" s="45"/>
+      <c r="G113" s="45"/>
+      <c r="H113" s="45"/>
+      <c r="I113" s="45"/>
+      <c r="J113" s="45"/>
+      <c r="K113" s="45"/>
+      <c r="L113" s="45"/>
+      <c r="M113" s="45"/>
+      <c r="N113" s="45"/>
+      <c r="O113" s="45"/>
+      <c r="P113" s="45"/>
+      <c r="Q113" s="45"/>
     </row>
     <row r="114" spans="3:17">
-      <c r="C114" s="41"/>
-      <c r="D114" s="41"/>
-      <c r="E114" s="41"/>
-      <c r="F114" s="41"/>
-      <c r="G114" s="41"/>
-      <c r="H114" s="41"/>
-      <c r="I114" s="41"/>
-      <c r="J114" s="41"/>
-      <c r="K114" s="41"/>
-      <c r="L114" s="41"/>
-      <c r="M114" s="41"/>
-      <c r="N114" s="41"/>
-      <c r="O114" s="41"/>
-      <c r="P114" s="41"/>
-      <c r="Q114" s="41"/>
+      <c r="C114" s="45"/>
+      <c r="D114" s="45"/>
+      <c r="E114" s="45"/>
+      <c r="F114" s="45"/>
+      <c r="G114" s="45"/>
+      <c r="H114" s="45"/>
+      <c r="I114" s="45"/>
+      <c r="J114" s="45"/>
+      <c r="K114" s="45"/>
+      <c r="L114" s="45"/>
+      <c r="M114" s="45"/>
+      <c r="N114" s="45"/>
+      <c r="O114" s="45"/>
+      <c r="P114" s="45"/>
+      <c r="Q114" s="45"/>
     </row>
     <row r="115" spans="3:17">
-      <c r="C115" s="41"/>
-      <c r="D115" s="41"/>
-      <c r="E115" s="41"/>
-      <c r="F115" s="41"/>
-      <c r="G115" s="41"/>
-      <c r="H115" s="41"/>
-      <c r="I115" s="41"/>
-      <c r="J115" s="41"/>
-      <c r="K115" s="41"/>
-      <c r="L115" s="41"/>
-      <c r="M115" s="41"/>
-      <c r="N115" s="41"/>
-      <c r="O115" s="41"/>
-      <c r="P115" s="41"/>
-      <c r="Q115" s="41"/>
+      <c r="C115" s="45"/>
+      <c r="D115" s="45"/>
+      <c r="E115" s="45"/>
+      <c r="F115" s="45"/>
+      <c r="G115" s="45"/>
+      <c r="H115" s="45"/>
+      <c r="I115" s="45"/>
+      <c r="J115" s="45"/>
+      <c r="K115" s="45"/>
+      <c r="L115" s="45"/>
+      <c r="M115" s="45"/>
+      <c r="N115" s="45"/>
+      <c r="O115" s="45"/>
+      <c r="P115" s="45"/>
+      <c r="Q115" s="45"/>
     </row>
     <row r="116" spans="3:17">
-      <c r="C116" s="41"/>
-      <c r="D116" s="41"/>
-      <c r="E116" s="41"/>
-      <c r="F116" s="41"/>
-      <c r="G116" s="41"/>
-      <c r="H116" s="41"/>
-      <c r="I116" s="41"/>
-      <c r="J116" s="41"/>
-      <c r="K116" s="41"/>
-      <c r="L116" s="41"/>
-      <c r="M116" s="41"/>
-      <c r="N116" s="41"/>
-      <c r="O116" s="41"/>
-      <c r="P116" s="41"/>
-      <c r="Q116" s="41"/>
+      <c r="C116" s="45"/>
+      <c r="D116" s="45"/>
+      <c r="E116" s="45"/>
+      <c r="F116" s="45"/>
+      <c r="G116" s="45"/>
+      <c r="H116" s="45"/>
+      <c r="I116" s="45"/>
+      <c r="J116" s="45"/>
+      <c r="K116" s="45"/>
+      <c r="L116" s="45"/>
+      <c r="M116" s="45"/>
+      <c r="N116" s="45"/>
+      <c r="O116" s="45"/>
+      <c r="P116" s="45"/>
+      <c r="Q116" s="45"/>
     </row>
     <row r="117" spans="3:17">
-      <c r="C117" s="41"/>
-      <c r="D117" s="41"/>
-      <c r="E117" s="41"/>
-      <c r="F117" s="41"/>
-      <c r="G117" s="41"/>
-      <c r="H117" s="41"/>
-      <c r="I117" s="41"/>
-      <c r="J117" s="41"/>
-      <c r="K117" s="41"/>
-      <c r="L117" s="41"/>
-      <c r="M117" s="41"/>
-      <c r="N117" s="41"/>
-      <c r="O117" s="41"/>
-      <c r="P117" s="41"/>
-      <c r="Q117" s="41"/>
+      <c r="C117" s="45"/>
+      <c r="D117" s="45"/>
+      <c r="E117" s="45"/>
+      <c r="F117" s="45"/>
+      <c r="G117" s="45"/>
+      <c r="H117" s="45"/>
+      <c r="I117" s="45"/>
+      <c r="J117" s="45"/>
+      <c r="K117" s="45"/>
+      <c r="L117" s="45"/>
+      <c r="M117" s="45"/>
+      <c r="N117" s="45"/>
+      <c r="O117" s="45"/>
+      <c r="P117" s="45"/>
+      <c r="Q117" s="45"/>
     </row>
     <row r="118" spans="3:17">
-      <c r="C118" s="41"/>
-      <c r="D118" s="41"/>
-      <c r="E118" s="41"/>
-      <c r="F118" s="41"/>
-      <c r="G118" s="41"/>
-      <c r="H118" s="41"/>
-      <c r="I118" s="41"/>
-      <c r="J118" s="41"/>
-      <c r="K118" s="41"/>
-      <c r="L118" s="41"/>
-      <c r="M118" s="41"/>
-      <c r="N118" s="41"/>
-      <c r="O118" s="41"/>
-      <c r="P118" s="41"/>
-      <c r="Q118" s="41"/>
+      <c r="C118" s="45"/>
+      <c r="D118" s="45"/>
+      <c r="E118" s="45"/>
+      <c r="F118" s="45"/>
+      <c r="G118" s="45"/>
+      <c r="H118" s="45"/>
+      <c r="I118" s="45"/>
+      <c r="J118" s="45"/>
+      <c r="K118" s="45"/>
+      <c r="L118" s="45"/>
+      <c r="M118" s="45"/>
+      <c r="N118" s="45"/>
+      <c r="O118" s="45"/>
+      <c r="P118" s="45"/>
+      <c r="Q118" s="45"/>
     </row>
     <row r="119" spans="3:17">
-      <c r="C119" s="41"/>
-      <c r="D119" s="41"/>
-      <c r="E119" s="41"/>
-      <c r="F119" s="41"/>
-      <c r="G119" s="41"/>
-      <c r="H119" s="41"/>
-      <c r="I119" s="41"/>
-      <c r="J119" s="41"/>
-      <c r="K119" s="41"/>
-      <c r="L119" s="41"/>
-      <c r="M119" s="41"/>
-      <c r="N119" s="41"/>
-      <c r="O119" s="41"/>
-      <c r="P119" s="41"/>
-      <c r="Q119" s="41"/>
+      <c r="C119" s="45"/>
+      <c r="D119" s="45"/>
+      <c r="E119" s="45"/>
+      <c r="F119" s="45"/>
+      <c r="G119" s="45"/>
+      <c r="H119" s="45"/>
+      <c r="I119" s="45"/>
+      <c r="J119" s="45"/>
+      <c r="K119" s="45"/>
+      <c r="L119" s="45"/>
+      <c r="M119" s="45"/>
+      <c r="N119" s="45"/>
+      <c r="O119" s="45"/>
+      <c r="P119" s="45"/>
+      <c r="Q119" s="45"/>
     </row>
     <row r="120" spans="3:17">
-      <c r="C120" s="41"/>
-      <c r="D120" s="41"/>
-      <c r="E120" s="41"/>
-      <c r="F120" s="41"/>
-      <c r="G120" s="41"/>
-      <c r="H120" s="41"/>
-      <c r="I120" s="41"/>
-      <c r="J120" s="41"/>
-      <c r="K120" s="41"/>
-      <c r="L120" s="41"/>
-      <c r="M120" s="41"/>
-      <c r="N120" s="41"/>
-      <c r="O120" s="41"/>
-      <c r="P120" s="41"/>
-      <c r="Q120" s="41"/>
+      <c r="C120" s="45"/>
+      <c r="D120" s="45"/>
+      <c r="E120" s="45"/>
+      <c r="F120" s="45"/>
+      <c r="G120" s="45"/>
+      <c r="H120" s="45"/>
+      <c r="I120" s="45"/>
+      <c r="J120" s="45"/>
+      <c r="K120" s="45"/>
+      <c r="L120" s="45"/>
+      <c r="M120" s="45"/>
+      <c r="N120" s="45"/>
+      <c r="O120" s="45"/>
+      <c r="P120" s="45"/>
+      <c r="Q120" s="45"/>
     </row>
     <row r="121" spans="3:17">
-      <c r="C121" s="41"/>
-      <c r="D121" s="41"/>
-      <c r="E121" s="41"/>
-      <c r="F121" s="41"/>
-      <c r="G121" s="41"/>
-      <c r="H121" s="41"/>
-      <c r="I121" s="41"/>
-      <c r="J121" s="41"/>
-      <c r="K121" s="41"/>
-      <c r="L121" s="41"/>
-      <c r="M121" s="41"/>
-      <c r="N121" s="41"/>
-      <c r="O121" s="41"/>
-      <c r="P121" s="41"/>
-      <c r="Q121" s="41"/>
+      <c r="C121" s="45"/>
+      <c r="D121" s="45"/>
+      <c r="E121" s="45"/>
+      <c r="F121" s="45"/>
+      <c r="G121" s="45"/>
+      <c r="H121" s="45"/>
+      <c r="I121" s="45"/>
+      <c r="J121" s="45"/>
+      <c r="K121" s="45"/>
+      <c r="L121" s="45"/>
+      <c r="M121" s="45"/>
+      <c r="N121" s="45"/>
+      <c r="O121" s="45"/>
+      <c r="P121" s="45"/>
+      <c r="Q121" s="45"/>
     </row>
     <row r="122" spans="3:17">
-      <c r="C122" s="41"/>
-      <c r="D122" s="41"/>
-      <c r="E122" s="41"/>
-      <c r="F122" s="41"/>
-      <c r="G122" s="41"/>
-      <c r="H122" s="41"/>
-      <c r="I122" s="41"/>
-      <c r="J122" s="41"/>
-      <c r="K122" s="41"/>
-      <c r="L122" s="41"/>
-      <c r="M122" s="41"/>
-      <c r="N122" s="41"/>
-      <c r="O122" s="41"/>
-      <c r="P122" s="41"/>
-      <c r="Q122" s="41"/>
+      <c r="C122" s="45"/>
+      <c r="D122" s="45"/>
+      <c r="E122" s="45"/>
+      <c r="F122" s="45"/>
+      <c r="G122" s="45"/>
+      <c r="H122" s="45"/>
+      <c r="I122" s="45"/>
+      <c r="J122" s="45"/>
+      <c r="K122" s="45"/>
+      <c r="L122" s="45"/>
+      <c r="M122" s="45"/>
+      <c r="N122" s="45"/>
+      <c r="O122" s="45"/>
+      <c r="P122" s="45"/>
+      <c r="Q122" s="45"/>
     </row>
     <row r="123" spans="3:17">
-      <c r="C123" s="41"/>
-      <c r="D123" s="41"/>
-      <c r="E123" s="41"/>
-      <c r="F123" s="41"/>
-      <c r="G123" s="41"/>
-      <c r="H123" s="41"/>
-      <c r="I123" s="41"/>
-      <c r="J123" s="41"/>
-      <c r="K123" s="41"/>
-      <c r="L123" s="41"/>
-      <c r="M123" s="41"/>
-      <c r="N123" s="41"/>
-      <c r="O123" s="41"/>
-      <c r="P123" s="41"/>
-      <c r="Q123" s="41"/>
+      <c r="C123" s="45"/>
+      <c r="D123" s="45"/>
+      <c r="E123" s="45"/>
+      <c r="F123" s="45"/>
+      <c r="G123" s="45"/>
+      <c r="H123" s="45"/>
+      <c r="I123" s="45"/>
+      <c r="J123" s="45"/>
+      <c r="K123" s="45"/>
+      <c r="L123" s="45"/>
+      <c r="M123" s="45"/>
+      <c r="N123" s="45"/>
+      <c r="O123" s="45"/>
+      <c r="P123" s="45"/>
+      <c r="Q123" s="45"/>
     </row>
     <row r="124" spans="3:17">
-      <c r="C124" s="41"/>
-      <c r="D124" s="41"/>
-      <c r="E124" s="41"/>
-      <c r="F124" s="41"/>
-      <c r="G124" s="41"/>
-      <c r="H124" s="41"/>
-      <c r="I124" s="41"/>
-      <c r="J124" s="41"/>
-      <c r="K124" s="41"/>
-      <c r="L124" s="41"/>
-      <c r="M124" s="41"/>
-      <c r="N124" s="41"/>
-      <c r="O124" s="41"/>
-      <c r="P124" s="41"/>
-      <c r="Q124" s="41"/>
+      <c r="C124" s="45"/>
+      <c r="D124" s="45"/>
+      <c r="E124" s="45"/>
+      <c r="F124" s="45"/>
+      <c r="G124" s="45"/>
+      <c r="H124" s="45"/>
+      <c r="I124" s="45"/>
+      <c r="J124" s="45"/>
+      <c r="K124" s="45"/>
+      <c r="L124" s="45"/>
+      <c r="M124" s="45"/>
+      <c r="N124" s="45"/>
+      <c r="O124" s="45"/>
+      <c r="P124" s="45"/>
+      <c r="Q124" s="45"/>
     </row>
     <row r="125" spans="3:17">
-      <c r="C125" s="41"/>
-      <c r="D125" s="41"/>
-      <c r="E125" s="41"/>
-      <c r="F125" s="41"/>
-      <c r="G125" s="41"/>
-      <c r="H125" s="41"/>
-      <c r="I125" s="41"/>
-      <c r="J125" s="41"/>
-      <c r="K125" s="41"/>
-      <c r="L125" s="41"/>
-      <c r="M125" s="41"/>
-      <c r="N125" s="41"/>
-      <c r="O125" s="41"/>
-      <c r="P125" s="41"/>
-      <c r="Q125" s="41"/>
+      <c r="C125" s="45"/>
+      <c r="D125" s="45"/>
+      <c r="E125" s="45"/>
+      <c r="F125" s="45"/>
+      <c r="G125" s="45"/>
+      <c r="H125" s="45"/>
+      <c r="I125" s="45"/>
+      <c r="J125" s="45"/>
+      <c r="K125" s="45"/>
+      <c r="L125" s="45"/>
+      <c r="M125" s="45"/>
+      <c r="N125" s="45"/>
+      <c r="O125" s="45"/>
+      <c r="P125" s="45"/>
+      <c r="Q125" s="45"/>
     </row>
     <row r="126" spans="3:17">
-      <c r="C126" s="41"/>
-      <c r="D126" s="41"/>
-      <c r="E126" s="41"/>
-      <c r="F126" s="41"/>
-      <c r="G126" s="41"/>
-      <c r="H126" s="41"/>
-      <c r="I126" s="41"/>
-      <c r="J126" s="41"/>
-      <c r="K126" s="41"/>
-      <c r="L126" s="41"/>
-      <c r="M126" s="41"/>
-      <c r="N126" s="41"/>
-      <c r="O126" s="41"/>
-      <c r="P126" s="41"/>
-      <c r="Q126" s="41"/>
+      <c r="C126" s="45"/>
+      <c r="D126" s="45"/>
+      <c r="E126" s="45"/>
+      <c r="F126" s="45"/>
+      <c r="G126" s="45"/>
+      <c r="H126" s="45"/>
+      <c r="I126" s="45"/>
+      <c r="J126" s="45"/>
+      <c r="K126" s="45"/>
+      <c r="L126" s="45"/>
+      <c r="M126" s="45"/>
+      <c r="N126" s="45"/>
+      <c r="O126" s="45"/>
+      <c r="P126" s="45"/>
+      <c r="Q126" s="45"/>
     </row>
     <row r="127" spans="3:17">
-      <c r="C127" s="41"/>
-      <c r="D127" s="41"/>
-      <c r="E127" s="41"/>
-      <c r="F127" s="41"/>
-      <c r="G127" s="41"/>
-      <c r="H127" s="41"/>
-      <c r="I127" s="41"/>
-      <c r="J127" s="41"/>
-      <c r="K127" s="41"/>
-      <c r="L127" s="41"/>
-      <c r="M127" s="41"/>
-      <c r="N127" s="41"/>
-      <c r="O127" s="41"/>
-      <c r="P127" s="41"/>
-      <c r="Q127" s="41"/>
+      <c r="C127" s="45"/>
+      <c r="D127" s="45"/>
+      <c r="E127" s="45"/>
+      <c r="F127" s="45"/>
+      <c r="G127" s="45"/>
+      <c r="H127" s="45"/>
+      <c r="I127" s="45"/>
+      <c r="J127" s="45"/>
+      <c r="K127" s="45"/>
+      <c r="L127" s="45"/>
+      <c r="M127" s="45"/>
+      <c r="N127" s="45"/>
+      <c r="O127" s="45"/>
+      <c r="P127" s="45"/>
+      <c r="Q127" s="45"/>
     </row>
     <row r="128" spans="3:17">
-      <c r="C128" s="41"/>
-      <c r="D128" s="41"/>
-      <c r="E128" s="41"/>
-      <c r="F128" s="41"/>
-      <c r="G128" s="41"/>
-      <c r="H128" s="41"/>
-      <c r="I128" s="41"/>
-      <c r="J128" s="41"/>
-      <c r="K128" s="41"/>
-      <c r="L128" s="41"/>
-      <c r="M128" s="41"/>
-      <c r="N128" s="41"/>
-      <c r="O128" s="41"/>
-      <c r="P128" s="41"/>
-      <c r="Q128" s="41"/>
+      <c r="C128" s="45"/>
+      <c r="D128" s="45"/>
+      <c r="E128" s="45"/>
+      <c r="F128" s="45"/>
+      <c r="G128" s="45"/>
+      <c r="H128" s="45"/>
+      <c r="I128" s="45"/>
+      <c r="J128" s="45"/>
+      <c r="K128" s="45"/>
+      <c r="L128" s="45"/>
+      <c r="M128" s="45"/>
+      <c r="N128" s="45"/>
+      <c r="O128" s="45"/>
+      <c r="P128" s="45"/>
+      <c r="Q128" s="45"/>
     </row>
     <row r="129" spans="3:17">
-      <c r="C129" s="41"/>
-      <c r="D129" s="41"/>
-      <c r="E129" s="41"/>
-      <c r="F129" s="41"/>
-      <c r="G129" s="41"/>
-      <c r="H129" s="41"/>
-      <c r="I129" s="41"/>
-      <c r="J129" s="41"/>
-      <c r="K129" s="41"/>
-      <c r="L129" s="41"/>
-      <c r="M129" s="41"/>
-      <c r="N129" s="41"/>
-      <c r="O129" s="41"/>
-      <c r="P129" s="41"/>
-      <c r="Q129" s="41"/>
+      <c r="C129" s="45"/>
+      <c r="D129" s="45"/>
+      <c r="E129" s="45"/>
+      <c r="F129" s="45"/>
+      <c r="G129" s="45"/>
+      <c r="H129" s="45"/>
+      <c r="I129" s="45"/>
+      <c r="J129" s="45"/>
+      <c r="K129" s="45"/>
+      <c r="L129" s="45"/>
+      <c r="M129" s="45"/>
+      <c r="N129" s="45"/>
+      <c r="O129" s="45"/>
+      <c r="P129" s="45"/>
+      <c r="Q129" s="45"/>
     </row>
     <row r="130" spans="3:17">
-      <c r="C130" s="41"/>
-      <c r="D130" s="41"/>
-      <c r="E130" s="41"/>
-      <c r="F130" s="41"/>
-      <c r="G130" s="41"/>
-      <c r="H130" s="41"/>
-      <c r="I130" s="41"/>
-      <c r="J130" s="41"/>
-      <c r="K130" s="41"/>
-      <c r="L130" s="41"/>
-      <c r="M130" s="41"/>
-      <c r="N130" s="41"/>
-      <c r="O130" s="41"/>
-      <c r="P130" s="41"/>
-      <c r="Q130" s="41"/>
+      <c r="C130" s="45"/>
+      <c r="D130" s="45"/>
+      <c r="E130" s="45"/>
+      <c r="F130" s="45"/>
+      <c r="G130" s="45"/>
+      <c r="H130" s="45"/>
+      <c r="I130" s="45"/>
+      <c r="J130" s="45"/>
+      <c r="K130" s="45"/>
+      <c r="L130" s="45"/>
+      <c r="M130" s="45"/>
+      <c r="N130" s="45"/>
+      <c r="O130" s="45"/>
+      <c r="P130" s="45"/>
+      <c r="Q130" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7051,39 +7306,39 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="4:10">
-      <c r="D1" s="81" t="s">
+      <c r="D1" s="85" t="s">
         <v>228</v>
       </c>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
     </row>
     <row r="2" spans="4:10">
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="85" t="s">
         <v>226</v>
       </c>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="H17" s="81" t="s">
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="H17" s="85" t="s">
         <v>227</v>
       </c>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7118,182 +7373,182 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="87" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="79"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="79"/>
-      <c r="T3" s="79"/>
+      <c r="A3" s="83"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="83"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="79"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="79"/>
-      <c r="P4" s="79"/>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="79"/>
-      <c r="T4" s="79"/>
+      <c r="A4" s="83"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="83"/>
+      <c r="S4" s="83"/>
+      <c r="T4" s="83"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="79"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="79"/>
-      <c r="T5" s="79"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="83"/>
+      <c r="T5" s="83"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="79"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="79"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="79"/>
-      <c r="S6" s="79"/>
-      <c r="T6" s="79"/>
+      <c r="A6" s="83"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="83"/>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="83"/>
+      <c r="S6" s="83"/>
+      <c r="T6" s="83"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="79"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="79"/>
-      <c r="O7" s="79"/>
-      <c r="P7" s="79"/>
-      <c r="Q7" s="79"/>
-      <c r="R7" s="79"/>
-      <c r="S7" s="79"/>
-      <c r="T7" s="79"/>
+      <c r="A7" s="83"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="83"/>
+      <c r="R7" s="83"/>
+      <c r="S7" s="83"/>
+      <c r="T7" s="83"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="79"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="79"/>
-      <c r="M8" s="79"/>
-      <c r="N8" s="79"/>
-      <c r="O8" s="79"/>
-      <c r="P8" s="79"/>
-      <c r="Q8" s="79"/>
-      <c r="R8" s="79"/>
-      <c r="S8" s="79"/>
-      <c r="T8" s="79"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="83"/>
+      <c r="P8" s="83"/>
+      <c r="Q8" s="83"/>
+      <c r="R8" s="83"/>
+      <c r="S8" s="83"/>
+      <c r="T8" s="83"/>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
@@ -7394,7 +7649,7 @@
         <v>550</v>
       </c>
       <c r="O11" s="31">
-        <f>N11/800</f>
+        <f t="shared" ref="O11:O19" si="1">N11/800</f>
         <v>0.6875</v>
       </c>
       <c r="P11" t="str">
@@ -7448,11 +7703,11 @@
         <v>66</v>
       </c>
       <c r="N12">
-        <f>SUM(F12:M12)</f>
+        <f t="shared" ref="N12:N19" si="2">SUM(F12:M12)</f>
         <v>449</v>
       </c>
       <c r="O12" s="31">
-        <f>N12/800</f>
+        <f t="shared" si="1"/>
         <v>0.56125000000000003</v>
       </c>
       <c r="P12" t="str">
@@ -7506,11 +7761,11 @@
         <v>35</v>
       </c>
       <c r="N13">
-        <f>SUM(F13:M13)</f>
+        <f t="shared" si="2"/>
         <v>404</v>
       </c>
       <c r="O13" s="31">
-        <f>N13/800</f>
+        <f t="shared" si="1"/>
         <v>0.505</v>
       </c>
       <c r="P13" t="str">
@@ -7564,11 +7819,11 @@
         <v>68</v>
       </c>
       <c r="N14">
-        <f>SUM(F14:M14)</f>
+        <f t="shared" si="2"/>
         <v>419</v>
       </c>
       <c r="O14" s="31">
-        <f>N14/800</f>
+        <f t="shared" si="1"/>
         <v>0.52375000000000005</v>
       </c>
       <c r="P14" t="str">
@@ -7622,11 +7877,11 @@
         <v>78</v>
       </c>
       <c r="N15">
-        <f>SUM(F15:M15)</f>
+        <f t="shared" si="2"/>
         <v>404</v>
       </c>
       <c r="O15" s="31">
-        <f>N15/800</f>
+        <f t="shared" si="1"/>
         <v>0.505</v>
       </c>
       <c r="P15" t="str">
@@ -7680,11 +7935,11 @@
         <v>48</v>
       </c>
       <c r="N16">
-        <f>SUM(F16:M16)</f>
+        <f t="shared" si="2"/>
         <v>481</v>
       </c>
       <c r="O16" s="31">
-        <f>N16/800</f>
+        <f t="shared" si="1"/>
         <v>0.60124999999999995</v>
       </c>
       <c r="P16" t="str">
@@ -7738,11 +7993,11 @@
         <v>69</v>
       </c>
       <c r="N17">
-        <f>SUM(F17:M17)</f>
+        <f t="shared" si="2"/>
         <v>452</v>
       </c>
-      <c r="O17" s="84">
-        <f>N17/800</f>
+      <c r="O17" s="32">
+        <f t="shared" si="1"/>
         <v>0.56499999999999995</v>
       </c>
       <c r="P17" t="str">
@@ -7796,11 +8051,11 @@
         <v>72</v>
       </c>
       <c r="N18">
-        <f>SUM(F18:M18)</f>
+        <f t="shared" si="2"/>
         <v>477</v>
       </c>
-      <c r="O18" s="84">
-        <f>N18/800</f>
+      <c r="O18" s="32">
+        <f t="shared" si="1"/>
         <v>0.59624999999999995</v>
       </c>
     </row>
@@ -7846,11 +8101,11 @@
         <v>47</v>
       </c>
       <c r="N19">
-        <f>SUM(F19:M19)</f>
+        <f t="shared" si="2"/>
         <v>377</v>
       </c>
-      <c r="O19" s="84">
-        <f>N19/800</f>
+      <c r="O19" s="32">
+        <f t="shared" si="1"/>
         <v>0.47125</v>
       </c>
     </row>
@@ -7870,11 +8125,11 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <pane xSplit="18615" topLeftCell="G1"/>
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="E13" sqref="E13"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -7884,50 +8139,67 @@
     <col min="11" max="11" width="34.7109375" customWidth="1"/>
     <col min="12" max="12" width="18.7109375" customWidth="1"/>
     <col min="13" max="13" width="40.7109375" customWidth="1"/>
-    <col min="14" max="14" width="38.7109375" customWidth="1"/>
+    <col min="14" max="14" width="42.7109375" customWidth="1"/>
     <col min="15" max="15" width="40.7109375" customWidth="1"/>
+    <col min="16" max="16" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:16">
+      <c r="A1" s="88" t="s">
         <v>274</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="H3" s="57" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="88"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+    </row>
+    <row r="3" spans="1:16" ht="18.75">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="89" t="s">
         <v>283</v>
       </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="13"/>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="17" t="s">
         <v>275</v>
       </c>
@@ -7952,25 +8224,26 @@
       <c r="H4" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="I4" s="85" t="s">
+      <c r="I4" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="J4" s="85"/>
-      <c r="K4" s="21" t="s">
+      <c r="J4" s="33"/>
+      <c r="K4" s="90" t="s">
         <v>286</v>
       </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21" t="s">
+      <c r="L4" s="90"/>
+      <c r="M4" s="90" t="s">
         <v>288</v>
       </c>
-      <c r="N4" s="85" t="s">
-        <v>316</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="N4" s="92" t="s">
+        <v>352</v>
+      </c>
+      <c r="O4" s="93" t="s">
+        <v>355</v>
+      </c>
+      <c r="P4" s="20"/>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
@@ -7983,36 +8256,46 @@
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="21" t="s">
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="90" t="s">
         <v>287</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="12"/>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="12" t="s">
-        <v>326</v>
+      <c r="L5" s="90"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="92" t="s">
+        <v>353</v>
+      </c>
+      <c r="O5" s="93" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="9" t="s">
+        <v>324</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="M6" s="85"/>
-      <c r="N6" s="85"/>
-      <c r="O6" s="12"/>
-    </row>
-    <row r="7" spans="1:15">
+        <v>325</v>
+      </c>
+      <c r="M6" s="33"/>
+      <c r="N6" s="92" t="s">
+        <v>354</v>
+      </c>
+      <c r="O6" s="94"/>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B7" t="s">
         <v>301</v>
@@ -8029,38 +8312,28 @@
       <c r="F7">
         <v>88</v>
       </c>
-      <c r="G7" s="89">
+      <c r="G7" s="35">
         <v>20000</v>
       </c>
       <c r="H7" s="14">
         <v>44255</v>
       </c>
-      <c r="I7" s="87" t="s">
+      <c r="I7" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="L7" s="35"/>
+      <c r="M7" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87" t="s">
-        <v>329</v>
-      </c>
-      <c r="L7" s="89">
-        <f>J27-(5*500)</f>
-        <v>-2500</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="N7" s="1">
-        <f>IF(M7&gt;=70,L7+10000,L7)</f>
-        <v>7500</v>
-      </c>
-      <c r="O7" t="str">
-        <f>IF(L7&lt;N7,"REVISED","NO")</f>
-        <v>REVISED</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B8" t="s">
         <v>302</v>
@@ -8077,17 +8350,25 @@
       <c r="F8">
         <v>77</v>
       </c>
-      <c r="G8" s="89">
-        <v>2300</v>
-      </c>
-      <c r="I8" s="87"/>
-      <c r="J8" s="87"/>
+      <c r="G8" s="35">
+        <v>20000</v>
+      </c>
+      <c r="H8" s="14">
+        <v>44256</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34" t="s">
+        <v>334</v>
+      </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B9" t="s">
         <v>303</v>
@@ -8104,17 +8385,25 @@
       <c r="F9">
         <v>98</v>
       </c>
-      <c r="G9" s="89">
-        <v>2400</v>
-      </c>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87"/>
+      <c r="G9" s="35">
+        <v>20000</v>
+      </c>
+      <c r="H9" s="14">
+        <v>44257</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34" t="s">
+        <v>335</v>
+      </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B10" t="s">
         <v>304</v>
@@ -8131,15 +8420,25 @@
       <c r="F10">
         <v>88</v>
       </c>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="88"/>
+      <c r="G10" s="35">
+        <v>20000</v>
+      </c>
+      <c r="H10" s="14">
+        <v>44258</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34" t="s">
+        <v>336</v>
+      </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B11" t="s">
         <v>305</v>
@@ -8156,12 +8455,23 @@
       <c r="F11">
         <v>78</v>
       </c>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="G11" s="35">
+        <v>20000</v>
+      </c>
+      <c r="H11" s="14">
+        <v>44259</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>332</v>
+      </c>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B12" t="s">
         <v>306</v>
@@ -8178,15 +8488,26 @@
       <c r="F12">
         <v>67</v>
       </c>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="G12" s="35">
+        <v>20000</v>
+      </c>
+      <c r="H12" s="14">
+        <v>44260</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>333</v>
+      </c>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B13" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C13" t="s">
         <v>269</v>
@@ -8197,60 +8518,71 @@
       <c r="E13" s="14">
         <v>44355</v>
       </c>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="I14" s="87"/>
-      <c r="J14" s="87"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="I16" s="87"/>
-      <c r="J16" s="87"/>
+      <c r="G13" s="35">
+        <v>20000</v>
+      </c>
+      <c r="H13" s="14">
+        <v>44261</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>333</v>
+      </c>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
     </row>
     <row r="17" spans="9:10">
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
     </row>
     <row r="18" spans="9:10">
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
     </row>
     <row r="19" spans="9:10">
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
     </row>
     <row r="20" spans="9:10">
-      <c r="I20" s="87"/>
-      <c r="J20" s="87"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
     </row>
     <row r="21" spans="9:10">
-      <c r="I21" s="87"/>
-      <c r="J21" s="87"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
     </row>
     <row r="22" spans="9:10">
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
     </row>
     <row r="23" spans="9:10">
-      <c r="I23" s="87"/>
-      <c r="J23" s="87"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
     </row>
     <row r="24" spans="9:10">
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
     </row>
     <row r="25" spans="9:10">
-      <c r="I25" s="87"/>
-      <c r="J25" s="87"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
     </row>
     <row r="26" spans="9:10">
-      <c r="I26" s="87"/>
-      <c r="J26" s="87"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8259,6 +8591,354 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C2:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:8">
+      <c r="C2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="3" spans="3:8">
+      <c r="C3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D3" t="str">
+        <f>"("&amp;C3&amp;")"</f>
+        <v>(GJOO12889)</v>
+      </c>
+      <c r="E3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8">
+      <c r="C4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D4" t="str">
+        <f>"("&amp;C4&amp;")"</f>
+        <v>(GJOO12890)</v>
+      </c>
+      <c r="E4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8">
+      <c r="C5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D5" t="str">
+        <f>"("&amp;C5&amp;")"</f>
+        <v>(GJOO12891)</v>
+      </c>
+      <c r="E5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8">
+      <c r="C6" t="s">
+        <v>346</v>
+      </c>
+      <c r="D6" t="str">
+        <f>"("&amp;C6&amp;")"</f>
+        <v>(GJOO12892)</v>
+      </c>
+      <c r="E6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8">
+      <c r="C7" t="s">
+        <v>347</v>
+      </c>
+      <c r="D7" t="str">
+        <f>"("&amp;C7&amp;")"</f>
+        <v>(GJOO12893)</v>
+      </c>
+      <c r="E7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8">
+      <c r="C8" t="s">
+        <v>348</v>
+      </c>
+      <c r="D8" t="str">
+        <f>"("&amp;C8&amp;")"</f>
+        <v>(GJOO12894)</v>
+      </c>
+      <c r="E8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8">
+      <c r="C9" t="s">
+        <v>349</v>
+      </c>
+      <c r="D9" t="str">
+        <f>"("&amp;C9&amp;")"</f>
+        <v>(GJOO12895)</v>
+      </c>
+      <c r="E9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8">
+      <c r="C10" t="s">
+        <v>350</v>
+      </c>
+      <c r="D10" t="str">
+        <f>"("&amp;C10&amp;")"</f>
+        <v>(GJOO12896)</v>
+      </c>
+      <c r="E10" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8">
+      <c r="C11" t="s">
+        <v>351</v>
+      </c>
+      <c r="D11" t="str">
+        <f>"("&amp;C11&amp;")"</f>
+        <v>(GJOO12897)</v>
+      </c>
+      <c r="E11" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8">
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="3:8">
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="3" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="99" t="s">
+        <v>362</v>
+      </c>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="99"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="100" t="s">
+        <v>363</v>
+      </c>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+    </row>
+    <row r="4" spans="1:9" ht="18.75">
+      <c r="A4" s="101" t="s">
+        <v>364</v>
+      </c>
+      <c r="B4" s="102" t="s">
+        <v>365</v>
+      </c>
+      <c r="C4" s="103" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C5" s="35">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C6" s="35">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B7" t="s">
+        <v>376</v>
+      </c>
+      <c r="C7" s="35">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>370</v>
+      </c>
+      <c r="B8" t="s">
+        <v>377</v>
+      </c>
+      <c r="C8" s="35">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>371</v>
+      </c>
+      <c r="B9" t="s">
+        <v>378</v>
+      </c>
+      <c r="C9" s="35">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>372</v>
+      </c>
+      <c r="B10" t="s">
+        <v>379</v>
+      </c>
+      <c r="C10" s="35">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>373</v>
+      </c>
+      <c r="B11" t="s">
+        <v>380</v>
+      </c>
+      <c r="C11" s="35">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="C12" s="106">
+        <f>SUM(C5:C11)</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" s="104" t="s">
+        <v>382</v>
+      </c>
+      <c r="C13" s="106">
+        <f>C12*13/100</f>
+        <v>780</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" s="105" t="s">
+        <v>383</v>
+      </c>
+      <c r="C14" s="106">
+        <f>C12+C13</f>
+        <v>6780</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A3:I3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -8276,12 +8956,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="8" t="s">
@@ -8324,44 +9004,44 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="45"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8388,43 +9068,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
     </row>
     <row r="3" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="37"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
       <c r="O4">
         <v>123456789</v>
       </c>
@@ -8436,18 +9116,18 @@
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="37"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="57" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1">
@@ -8456,16 +9136,16 @@
       <c r="C6">
         <v>6</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="49"/>
+      <c r="A7" s="58"/>
       <c r="B7">
         <v>2</v>
       </c>
@@ -8489,7 +9169,7 @@
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="49"/>
+      <c r="A8" s="58"/>
       <c r="B8">
         <v>3</v>
       </c>
@@ -8513,7 +9193,7 @@
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="49"/>
+      <c r="A9" s="58"/>
       <c r="B9">
         <v>4</v>
       </c>
@@ -8522,7 +9202,7 @@
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="49"/>
+      <c r="A10" s="58"/>
       <c r="B10">
         <v>5</v>
       </c>
@@ -8595,36 +9275,36 @@
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="54" t="s">
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="55" t="s">
+      <c r="G15" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="51" t="s">
+      <c r="H15" s="50" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="F16" s="54"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="51"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="50"/>
       <c r="O16" t="s">
         <v>41</v>
       </c>
@@ -8636,15 +9316,15 @@
       </c>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
       <c r="F17" t="s">
         <v>17</v>
       </c>
@@ -8665,11 +9345,11 @@
       </c>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="47"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
       <c r="F18" t="s">
         <v>18</v>
       </c>
@@ -8690,11 +9370,11 @@
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="47"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
       <c r="F19" t="s">
         <v>19</v>
       </c>
@@ -8907,6 +9587,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:I5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="E6:I6"/>
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="A15:E15"/>
@@ -8914,11 +9599,6 @@
     <mergeCell ref="B17:E19"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:I5"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="E6:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -8939,48 +9619,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="56"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="56"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="56"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
     </row>
     <row r="8" spans="1:18">
       <c r="C8" s="9"/>
@@ -8991,41 +9671,41 @@
       <c r="F8" s="4"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="J8" s="34" t="s">
+      <c r="J8" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
     </row>
     <row r="9" spans="1:18">
       <c r="B9" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="J9" s="58" t="s">
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="J9" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="63"/>
     </row>
     <row r="10" spans="1:18">
       <c r="B10" t="s">
@@ -9047,15 +9727,15 @@
         <f>LEN(E10)</f>
         <v>11</v>
       </c>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="63"/>
     </row>
     <row r="11" spans="1:18">
       <c r="B11" t="s">
@@ -9077,15 +9757,15 @@
         <f>LEN(E11)</f>
         <v>14</v>
       </c>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
     </row>
     <row r="12" spans="1:18">
       <c r="B12" t="s">
@@ -9107,15 +9787,15 @@
         <f>LEN(E12)</f>
         <v>13</v>
       </c>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="63"/>
     </row>
     <row r="13" spans="1:18">
       <c r="B13" t="s">
@@ -9136,15 +9816,15 @@
       <c r="F13">
         <v>9</v>
       </c>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="63"/>
     </row>
     <row r="14" spans="1:18">
       <c r="B14" t="s">
@@ -9165,81 +9845,81 @@
       <c r="F14">
         <v>11</v>
       </c>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="59"/>
-      <c r="M15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="63"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
     </row>
     <row r="17" spans="4:18">
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="63"/>
     </row>
     <row r="18" spans="4:18">
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="63"/>
+      <c r="R18" s="63"/>
     </row>
     <row r="19" spans="4:18">
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="63"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="63"/>
+      <c r="Q19" s="63"/>
+      <c r="R19" s="63"/>
     </row>
     <row r="20" spans="4:18">
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="63"/>
+      <c r="R20" s="63"/>
     </row>
     <row r="28" spans="4:18">
       <c r="D28" s="11"/>
@@ -9290,17 +9970,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="43" t="s">
         <v>66</v>
       </c>
       <c r="B3" t="s">
@@ -9309,13 +9989,13 @@
       <c r="C3" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="60"/>
+      <c r="F3" s="64"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="40"/>
+      <c r="A4" s="44"/>
       <c r="C4" t="s">
         <v>74</v>
       </c>
@@ -9331,7 +10011,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="40"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="6" t="s">
         <v>68</v>
       </c>
@@ -9347,7 +10027,7 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="40"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="6" t="s">
         <v>69</v>
       </c>
@@ -9363,7 +10043,7 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="40"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="6" t="s">
         <v>70</v>
       </c>
@@ -9379,7 +10059,7 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="40"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="6" t="s">
         <v>71</v>
       </c>
@@ -9395,7 +10075,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="40"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="6" t="s">
         <v>72</v>
       </c>
@@ -9411,107 +10091,107 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75">
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
       <c r="H23" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -9541,20 +10221,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="62"/>
+      <c r="B3" s="66"/>
       <c r="E3" s="12" t="s">
         <v>84</v>
       </c>
@@ -9625,72 +10305,72 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="64"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="64"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="64"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="64"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="64"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="64"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -9726,37 +10406,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="G4" s="66" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="G4" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="H5" s="67" t="s">
+      <c r="H5" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
     </row>
     <row r="6" spans="1:12">
       <c r="C6" s="9" t="s">
@@ -9764,13 +10444,13 @@
       </c>
       <c r="D6" s="14">
         <f ca="1">TODAY()</f>
-        <v>44707</v>
-      </c>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
+        <v>44708</v>
+      </c>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
     </row>
     <row r="7" spans="1:12">
       <c r="C7" s="16" t="s">
@@ -9778,20 +10458,20 @@
       </c>
       <c r="D7" s="15">
         <f ca="1">NOW()</f>
-        <v>44707.758294212967</v>
-      </c>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
+        <v>44708.765805092589</v>
+      </c>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
     </row>
     <row r="9" spans="1:12">
       <c r="B9" s="12" t="s">
@@ -9804,11 +10484,11 @@
         <f>DAY(C9)</f>
         <v>1</v>
       </c>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="12" t="s">
@@ -9821,11 +10501,11 @@
         <f>MONTH(C10)</f>
         <v>3</v>
       </c>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="12" t="s">
@@ -9838,11 +10518,11 @@
         <f>YEAR(C11)</f>
         <v>2020</v>
       </c>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
     </row>
     <row r="12" spans="1:12">
       <c r="C12" s="14">
@@ -9852,11 +10532,11 @@
         <f>DAY(C12)</f>
         <v>4</v>
       </c>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
     </row>
     <row r="13" spans="1:12">
       <c r="C13" s="14">
@@ -9894,25 +10574,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
     </row>
     <row r="3" spans="1:12">
       <c r="G3" s="19" t="s">
         <v>106</v>
       </c>
       <c r="H3" s="20"/>
-      <c r="J3" s="52" t="s">
+      <c r="J3" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
     </row>
     <row r="4" spans="1:12">
       <c r="C4" s="17" t="s">
@@ -9928,9 +10608,9 @@
         <f>SUM(D5:D7)</f>
         <v>71</v>
       </c>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
     </row>
     <row r="5" spans="1:12">
       <c r="C5" t="s">
@@ -9946,9 +10626,9 @@
         <f>MIN(D5:D10)</f>
         <v>23</v>
       </c>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
     </row>
     <row r="6" spans="1:12">
       <c r="C6" t="s">
@@ -9964,9 +10644,9 @@
         <f>MAX(D5:D10)</f>
         <v>25</v>
       </c>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
     </row>
     <row r="7" spans="1:12">
       <c r="C7" t="s">
@@ -9982,9 +10662,9 @@
         <f>AVERAGE(D5:D10)</f>
         <v>23.5</v>
       </c>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
     </row>
     <row r="8" spans="1:12">
       <c r="G8" s="18" t="s">
@@ -9994,9 +10674,9 @@
         <f>COUNT(C5:C10,D5:D10)</f>
         <v>4</v>
       </c>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
     </row>
     <row r="9" spans="1:12">
       <c r="G9" s="18" t="s">
@@ -10006,9 +10686,9 @@
         <f>COUNTA(C5:C10,D5:D10)</f>
         <v>8</v>
       </c>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
     </row>
     <row r="10" spans="1:12">
       <c r="C10" t="s">
@@ -10024,9 +10704,9 @@
         <f>COUNTBLANK(D5:D10)</f>
         <v>2</v>
       </c>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
     </row>
     <row r="11" spans="1:12">
       <c r="D11">
@@ -10039,9 +10719,9 @@
         <f>SMALL(D5:D10,3)</f>
         <v>23</v>
       </c>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
     </row>
     <row r="12" spans="1:12">
       <c r="D12">
@@ -10054,11 +10734,11 @@
         <f>LARGE(D5:D10,1)</f>
         <v>25</v>
       </c>
-      <c r="J12" s="34" t="s">
+      <c r="J12" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
     </row>
     <row r="13" spans="1:12">
       <c r="D13">
@@ -10066,88 +10746,88 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="D15" s="69" t="s">
+      <c r="D15" s="73" t="s">
         <v>118</v>
       </c>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="D16" s="70" t="s">
+      <c r="D16" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
     </row>
     <row r="17" spans="4:11">
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
     </row>
     <row r="18" spans="4:11">
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
     </row>
     <row r="19" spans="4:11">
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
     </row>
     <row r="20" spans="4:11">
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
     </row>
     <row r="21" spans="4:11">
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
     </row>
     <row r="22" spans="4:11">
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="5">
